--- a/FINAL/Classification Report Semua Nilai K.xlsx
+++ b/FINAL/Classification Report Semua Nilai K.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\K-NN\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83BA431-B940-40D7-98DA-BE3116F49DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA79E48-ADC9-4DCE-B11E-7118F104D53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{6725F3A3-4E43-48F4-B785-D68102C2B30C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{6725F3A3-4E43-48F4-B785-D68102C2B30C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet9" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="87">
   <si>
     <t>Metode Normalisasi</t>
   </si>
@@ -186,6 +192,117 @@
   </si>
   <si>
     <t>26</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>DiabetesPedigreeFunction</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>SkinThickness</t>
+  </si>
+  <si>
+    <t>BloodPressure</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>Pregnancies</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Fitur</t>
+  </si>
+  <si>
+    <t>Tipe Data</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>Missing Values</t>
+  </si>
+  <si>
+    <t>Data Duplikat</t>
+  </si>
+  <si>
+    <t>Jenis Data</t>
+  </si>
+  <si>
+    <t>Numerik</t>
+  </si>
+  <si>
+    <t>Kategorikal</t>
+  </si>
+  <si>
+    <t>Data Training</t>
+  </si>
+  <si>
+    <t>Data Testing</t>
+  </si>
+  <si>
+    <t>Data Training Sebelum Dilakukan Normalisasi</t>
+  </si>
+  <si>
+    <t>Data Testing Sebelum Dilakukan Normalisasi</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Nilai Unik</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Jumlah Baris</t>
+  </si>
+  <si>
+    <t>Jumlah Kolom</t>
+  </si>
+  <si>
+    <t>Teknik Normalisasi</t>
+  </si>
+  <si>
+    <t>Nilai K</t>
+  </si>
+  <si>
+    <t>Z-Score Scaling</t>
+  </si>
+  <si>
+    <t>Z-Score Scaling vs Tanpa Normalisasi</t>
   </si>
 </sst>
 </file>
@@ -196,7 +313,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,16 +327,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -316,11 +457,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,6 +549,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -382,6 +590,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,7 +938,7 @@
   <dimension ref="B2:V27"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,50 +964,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="13" t="s">
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="1">
         <v>0</v>
       </c>
@@ -806,8 +1044,8 @@
       <c r="P3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="13"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="15"/>
       <c r="S3" s="3" t="s">
         <v>11</v>
       </c>
@@ -822,7 +1060,7 @@
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2">
@@ -887,7 +1125,7 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B5" s="12"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="4">
         <v>3</v>
       </c>
@@ -950,7 +1188,7 @@
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B6" s="12"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="4">
         <v>5</v>
       </c>
@@ -1013,7 +1251,7 @@
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B7" s="12"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="4">
         <v>7</v>
       </c>
@@ -1076,7 +1314,7 @@
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B8" s="12"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="4">
         <v>9</v>
       </c>
@@ -1139,7 +1377,7 @@
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="4">
         <v>11</v>
       </c>
@@ -1202,7 +1440,7 @@
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2">
@@ -1267,7 +1505,7 @@
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="4">
         <v>3</v>
       </c>
@@ -1330,7 +1568,7 @@
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="4">
         <v>5</v>
       </c>
@@ -1393,7 +1631,7 @@
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="4">
         <v>7</v>
       </c>
@@ -1456,7 +1694,7 @@
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B14" s="12"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="4">
         <v>9</v>
       </c>
@@ -1519,7 +1757,7 @@
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="4">
         <v>11</v>
       </c>
@@ -1582,7 +1820,7 @@
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2">
@@ -1647,7 +1885,7 @@
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="4">
         <v>3</v>
       </c>
@@ -1710,7 +1948,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B18" s="12"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="4">
         <v>5</v>
       </c>
@@ -1773,7 +2011,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B19" s="12"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="4">
         <v>7</v>
       </c>
@@ -1836,7 +2074,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B20" s="12"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="4">
         <v>9</v>
       </c>
@@ -1899,7 +2137,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="4">
         <v>11</v>
       </c>
@@ -1962,7 +2200,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2">
@@ -2027,7 +2265,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B23" s="12"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="4">
         <v>3</v>
       </c>
@@ -2090,7 +2328,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B24" s="12"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="4">
         <v>5</v>
       </c>
@@ -2153,7 +2391,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="4">
         <v>7</v>
       </c>
@@ -2216,7 +2454,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B26" s="12"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="4">
         <v>9</v>
       </c>
@@ -2279,7 +2517,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B27" s="12"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="5">
         <v>11</v>
       </c>
@@ -2366,8 +2604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608253F3-CE1D-44DD-9816-E83EFF0DE164}">
   <dimension ref="A2:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2403,13 +2641,13 @@
       <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2421,64 +2659,64 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="13" t="s">
+      <c r="O2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="13" t="s">
+      <c r="S2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="13" t="s">
+      <c r="W2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AA2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AC2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AE2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AG2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2486,40 +2724,40 @@
       <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
     </row>
     <row r="4" spans="1:33" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2">
@@ -2543,7 +2781,7 @@
       <c r="I4" s="8">
         <v>0.70299999999999996</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="2">
@@ -2552,7 +2790,7 @@
       <c r="M4" s="8">
         <v>0.72729999999999995</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="P4" s="2">
@@ -2561,7 +2799,7 @@
       <c r="Q4" s="8">
         <v>0.70299999999999996</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="T4" s="2">
@@ -2570,7 +2808,7 @@
       <c r="U4" s="8">
         <v>0.70299999999999996</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="W4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="X4" s="2">
@@ -2579,7 +2817,7 @@
       <c r="Y4" s="8">
         <v>0.70299999999999996</v>
       </c>
-      <c r="AA4" s="18" t="s">
+      <c r="AA4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="AB4" s="2">
@@ -2588,7 +2826,7 @@
       <c r="AC4" s="8">
         <v>0.78790000000000004</v>
       </c>
-      <c r="AE4" s="18" t="s">
+      <c r="AE4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="AF4" s="2">
@@ -2602,7 +2840,7 @@
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="4">
         <v>3</v>
       </c>
@@ -2624,42 +2862,42 @@
       <c r="I5" s="9">
         <v>0.75870000000000004</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="4">
         <v>3</v>
       </c>
       <c r="M5" s="9">
         <v>0.74029999999999996</v>
       </c>
-      <c r="O5" s="19"/>
+      <c r="O5" s="21"/>
       <c r="P5" s="4">
         <v>3</v>
       </c>
       <c r="Q5" s="9">
         <v>0.71789999999999998</v>
       </c>
-      <c r="S5" s="19"/>
+      <c r="S5" s="21"/>
       <c r="T5" s="4">
         <v>3</v>
       </c>
       <c r="U5" s="9">
         <v>0.72119999999999995</v>
       </c>
-      <c r="W5" s="19"/>
+      <c r="W5" s="21"/>
       <c r="X5" s="4">
         <v>3</v>
       </c>
       <c r="Y5" s="9">
         <v>0.71940000000000004</v>
       </c>
-      <c r="AA5" s="19"/>
+      <c r="AA5" s="21"/>
       <c r="AB5" s="4">
         <v>3</v>
       </c>
       <c r="AC5" s="9">
         <v>0.78790000000000004</v>
       </c>
-      <c r="AE5" s="19"/>
+      <c r="AE5" s="21"/>
       <c r="AF5" s="4">
         <v>3</v>
       </c>
@@ -2671,7 +2909,7 @@
       <c r="A6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="4">
         <v>5</v>
       </c>
@@ -2693,42 +2931,42 @@
       <c r="I6" s="9">
         <v>0.77190000000000003</v>
       </c>
-      <c r="K6" s="19"/>
+      <c r="K6" s="21"/>
       <c r="L6" s="4">
         <v>5</v>
       </c>
       <c r="M6" s="9">
         <v>0.74029999999999996</v>
       </c>
-      <c r="O6" s="19"/>
+      <c r="O6" s="21"/>
       <c r="P6" s="4">
         <v>5</v>
       </c>
       <c r="Q6" s="9">
         <v>0.71879999999999999</v>
       </c>
-      <c r="S6" s="19"/>
+      <c r="S6" s="21"/>
       <c r="T6" s="4">
         <v>5</v>
       </c>
       <c r="U6" s="9">
         <v>0.72529999999999994</v>
       </c>
-      <c r="W6" s="19"/>
+      <c r="W6" s="21"/>
       <c r="X6" s="4">
         <v>5</v>
       </c>
       <c r="Y6" s="9">
         <v>0.72150000000000003</v>
       </c>
-      <c r="AA6" s="19"/>
+      <c r="AA6" s="21"/>
       <c r="AB6" s="4">
         <v>5</v>
       </c>
       <c r="AC6" s="9">
         <v>0.77780000000000005</v>
       </c>
-      <c r="AE6" s="19"/>
+      <c r="AE6" s="21"/>
       <c r="AF6" s="4">
         <v>5</v>
       </c>
@@ -2740,7 +2978,7 @@
       <c r="A7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="4">
         <v>7</v>
       </c>
@@ -2762,42 +3000,42 @@
       <c r="I7" s="9">
         <v>0.77070000000000005</v>
       </c>
-      <c r="K7" s="19"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="4">
         <v>7</v>
       </c>
       <c r="M7" s="9">
         <v>0.72729999999999995</v>
       </c>
-      <c r="O7" s="19"/>
+      <c r="O7" s="21"/>
       <c r="P7" s="4">
         <v>7</v>
       </c>
       <c r="Q7" s="9">
         <v>0.70650000000000002</v>
       </c>
-      <c r="S7" s="19"/>
+      <c r="S7" s="21"/>
       <c r="T7" s="4">
         <v>7</v>
       </c>
       <c r="U7" s="9">
         <v>0.71519999999999995</v>
       </c>
-      <c r="W7" s="19"/>
+      <c r="W7" s="21"/>
       <c r="X7" s="4">
         <v>7</v>
       </c>
       <c r="Y7" s="9">
         <v>0.70960000000000001</v>
       </c>
-      <c r="AA7" s="19"/>
+      <c r="AA7" s="21"/>
       <c r="AB7" s="4">
         <v>7</v>
       </c>
       <c r="AC7" s="9">
         <v>0.75760000000000005</v>
       </c>
-      <c r="AE7" s="19"/>
+      <c r="AE7" s="21"/>
       <c r="AF7" s="4">
         <v>7</v>
       </c>
@@ -2809,7 +3047,7 @@
       <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="4">
         <v>9</v>
       </c>
@@ -2831,42 +3069,42 @@
       <c r="I8" s="9">
         <v>0.77510000000000001</v>
       </c>
-      <c r="K8" s="19"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="4">
         <v>9</v>
       </c>
       <c r="M8" s="9">
         <v>0.75319999999999998</v>
       </c>
-      <c r="O8" s="19"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="4">
         <v>9</v>
       </c>
       <c r="Q8" s="9">
         <v>0.73180000000000001</v>
       </c>
-      <c r="S8" s="19"/>
+      <c r="S8" s="21"/>
       <c r="T8" s="4">
         <v>9</v>
       </c>
       <c r="U8" s="9">
         <v>0.73540000000000005</v>
       </c>
-      <c r="W8" s="19"/>
+      <c r="W8" s="21"/>
       <c r="X8" s="4">
         <v>9</v>
       </c>
       <c r="Y8" s="9">
         <v>0.73340000000000005</v>
       </c>
-      <c r="AA8" s="19"/>
+      <c r="AA8" s="21"/>
       <c r="AB8" s="4">
         <v>9</v>
       </c>
       <c r="AC8" s="9">
         <v>0.79800000000000004</v>
       </c>
-      <c r="AE8" s="19"/>
+      <c r="AE8" s="21"/>
       <c r="AF8" s="4">
         <v>9</v>
       </c>
@@ -2878,7 +3116,7 @@
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="4">
         <v>11</v>
       </c>
@@ -2900,42 +3138,42 @@
       <c r="I9" s="10">
         <v>0.7802</v>
       </c>
-      <c r="K9" s="20"/>
+      <c r="K9" s="22"/>
       <c r="L9" s="4">
         <v>11</v>
       </c>
       <c r="M9" s="10">
         <v>0.75970000000000004</v>
       </c>
-      <c r="O9" s="20"/>
+      <c r="O9" s="22"/>
       <c r="P9" s="4">
         <v>11</v>
       </c>
       <c r="Q9" s="10">
         <v>0.73899999999999999</v>
       </c>
-      <c r="S9" s="20"/>
+      <c r="S9" s="22"/>
       <c r="T9" s="4">
         <v>11</v>
       </c>
       <c r="U9" s="10">
         <v>0.74439999999999995</v>
       </c>
-      <c r="W9" s="20"/>
+      <c r="W9" s="22"/>
       <c r="X9" s="4">
         <v>11</v>
       </c>
       <c r="Y9" s="10">
         <v>0.74139999999999995</v>
       </c>
-      <c r="AA9" s="20"/>
+      <c r="AA9" s="22"/>
       <c r="AB9" s="4">
         <v>11</v>
       </c>
       <c r="AC9" s="10">
         <v>0.79800000000000004</v>
       </c>
-      <c r="AE9" s="20"/>
+      <c r="AE9" s="22"/>
       <c r="AF9" s="4">
         <v>11</v>
       </c>
@@ -2947,7 +3185,7 @@
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2">
@@ -2971,7 +3209,7 @@
       <c r="I10" s="8">
         <v>0.72119999999999995</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="20" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="2">
@@ -2980,7 +3218,7 @@
       <c r="M10" s="8">
         <v>0.74029999999999996</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="20" t="s">
         <v>16</v>
       </c>
       <c r="P10" s="2">
@@ -2989,7 +3227,7 @@
       <c r="Q10" s="8">
         <v>0.71789999999999998</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="20" t="s">
         <v>16</v>
       </c>
       <c r="T10" s="2">
@@ -2998,7 +3236,7 @@
       <c r="U10" s="8">
         <v>0.72119999999999995</v>
       </c>
-      <c r="W10" s="18" t="s">
+      <c r="W10" s="20" t="s">
         <v>16</v>
       </c>
       <c r="X10" s="2">
@@ -3007,7 +3245,7 @@
       <c r="Y10" s="8">
         <v>0.71940000000000004</v>
       </c>
-      <c r="AA10" s="18" t="s">
+      <c r="AA10" s="20" t="s">
         <v>16</v>
       </c>
       <c r="AB10" s="2">
@@ -3016,7 +3254,7 @@
       <c r="AC10" s="8">
         <v>0.78790000000000004</v>
       </c>
-      <c r="AE10" s="18" t="s">
+      <c r="AE10" s="20" t="s">
         <v>16</v>
       </c>
       <c r="AF10" s="2">
@@ -3030,7 +3268,7 @@
       <c r="A11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="4">
         <v>3</v>
       </c>
@@ -3052,42 +3290,42 @@
       <c r="I11" s="9">
         <v>0.78439999999999999</v>
       </c>
-      <c r="K11" s="19"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="4">
         <v>3</v>
       </c>
       <c r="M11" s="9">
         <v>0.7792</v>
       </c>
-      <c r="O11" s="19"/>
+      <c r="O11" s="21"/>
       <c r="P11" s="4">
         <v>3</v>
       </c>
       <c r="Q11" s="9">
         <v>0.75960000000000005</v>
       </c>
-      <c r="S11" s="19"/>
+      <c r="S11" s="21"/>
       <c r="T11" s="4">
         <v>3</v>
       </c>
       <c r="U11" s="9">
         <v>0.76359999999999995</v>
       </c>
-      <c r="W11" s="19"/>
+      <c r="W11" s="21"/>
       <c r="X11" s="4">
         <v>3</v>
       </c>
       <c r="Y11" s="9">
         <v>0.76149999999999995</v>
       </c>
-      <c r="AA11" s="19"/>
+      <c r="AA11" s="21"/>
       <c r="AB11" s="4">
         <v>3</v>
       </c>
       <c r="AC11" s="9">
         <v>0.81820000000000004</v>
       </c>
-      <c r="AE11" s="19"/>
+      <c r="AE11" s="21"/>
       <c r="AF11" s="4">
         <v>3</v>
       </c>
@@ -3099,7 +3337,7 @@
       <c r="A12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="4">
         <v>5</v>
       </c>
@@ -3121,42 +3359,42 @@
       <c r="I12" s="9">
         <v>0.79100000000000004</v>
       </c>
-      <c r="K12" s="19"/>
+      <c r="K12" s="21"/>
       <c r="L12" s="4">
         <v>5</v>
       </c>
       <c r="M12" s="9">
         <v>0.78569999999999995</v>
       </c>
-      <c r="O12" s="19"/>
+      <c r="O12" s="21"/>
       <c r="P12" s="4">
         <v>5</v>
       </c>
       <c r="Q12" s="9">
         <v>0.76659999999999995</v>
       </c>
-      <c r="S12" s="19"/>
+      <c r="S12" s="21"/>
       <c r="T12" s="4">
         <v>5</v>
       </c>
       <c r="U12" s="9">
         <v>0.76870000000000005</v>
       </c>
-      <c r="W12" s="19"/>
+      <c r="W12" s="21"/>
       <c r="X12" s="4">
         <v>5</v>
       </c>
       <c r="Y12" s="9">
         <v>0.76759999999999995</v>
       </c>
-      <c r="AA12" s="19"/>
+      <c r="AA12" s="21"/>
       <c r="AB12" s="4">
         <v>5</v>
       </c>
       <c r="AC12" s="9">
         <v>0.82830000000000004</v>
       </c>
-      <c r="AE12" s="19"/>
+      <c r="AE12" s="21"/>
       <c r="AF12" s="4">
         <v>5</v>
       </c>
@@ -3168,7 +3406,7 @@
       <c r="A13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="4">
         <v>7</v>
       </c>
@@ -3190,42 +3428,42 @@
       <c r="I13" s="9">
         <v>0.79500000000000004</v>
       </c>
-      <c r="K13" s="19"/>
+      <c r="K13" s="21"/>
       <c r="L13" s="4">
         <v>7</v>
       </c>
       <c r="M13" s="9">
         <v>0.81169999999999998</v>
       </c>
-      <c r="O13" s="19"/>
+      <c r="O13" s="21"/>
       <c r="P13" s="4">
         <v>7</v>
       </c>
       <c r="Q13" s="9">
         <v>0.79459999999999997</v>
       </c>
-      <c r="S13" s="19"/>
+      <c r="S13" s="21"/>
       <c r="T13" s="4">
         <v>7</v>
       </c>
       <c r="U13" s="9">
         <v>0.79700000000000004</v>
       </c>
-      <c r="W13" s="19"/>
+      <c r="W13" s="21"/>
       <c r="X13" s="4">
         <v>7</v>
       </c>
       <c r="Y13" s="9">
         <v>0.79579999999999995</v>
       </c>
-      <c r="AA13" s="19"/>
+      <c r="AA13" s="21"/>
       <c r="AB13" s="4">
         <v>7</v>
       </c>
       <c r="AC13" s="9">
         <v>0.84850000000000003</v>
       </c>
-      <c r="AE13" s="19"/>
+      <c r="AE13" s="21"/>
       <c r="AF13" s="4">
         <v>7</v>
       </c>
@@ -3237,7 +3475,7 @@
       <c r="A14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="4">
         <v>9</v>
       </c>
@@ -3259,42 +3497,42 @@
       <c r="I14" s="9">
         <v>0.80369999999999997</v>
       </c>
-      <c r="K14" s="19"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="4">
         <v>9</v>
       </c>
       <c r="M14" s="9">
         <v>0.79869999999999997</v>
       </c>
-      <c r="O14" s="19"/>
+      <c r="O14" s="21"/>
       <c r="P14" s="4">
         <v>9</v>
       </c>
       <c r="Q14" s="9">
         <v>0.78110000000000002</v>
       </c>
-      <c r="S14" s="19"/>
+      <c r="S14" s="21"/>
       <c r="T14" s="4">
         <v>9</v>
       </c>
       <c r="U14" s="9">
         <v>0.77880000000000005</v>
       </c>
-      <c r="W14" s="19"/>
+      <c r="W14" s="21"/>
       <c r="X14" s="4">
         <v>9</v>
       </c>
       <c r="Y14" s="9">
         <v>0.77990000000000004</v>
       </c>
-      <c r="AA14" s="19"/>
+      <c r="AA14" s="21"/>
       <c r="AB14" s="4">
         <v>9</v>
       </c>
       <c r="AC14" s="9">
         <v>0.84850000000000003</v>
       </c>
-      <c r="AE14" s="19"/>
+      <c r="AE14" s="21"/>
       <c r="AF14" s="4">
         <v>9</v>
       </c>
@@ -3306,7 +3544,7 @@
       <c r="A15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="4">
         <v>11</v>
       </c>
@@ -3328,42 +3566,42 @@
       <c r="I15" s="10">
         <v>0.80500000000000005</v>
       </c>
-      <c r="K15" s="20"/>
+      <c r="K15" s="22"/>
       <c r="L15" s="4">
         <v>11</v>
       </c>
       <c r="M15" s="10">
         <v>0.7792</v>
       </c>
-      <c r="O15" s="20"/>
+      <c r="O15" s="22"/>
       <c r="P15" s="4">
         <v>11</v>
       </c>
       <c r="Q15" s="10">
         <v>0.75990000000000002</v>
       </c>
-      <c r="S15" s="20"/>
+      <c r="S15" s="22"/>
       <c r="T15" s="4">
         <v>11</v>
       </c>
       <c r="U15" s="10">
         <v>0.75560000000000005</v>
       </c>
-      <c r="W15" s="20"/>
+      <c r="W15" s="22"/>
       <c r="X15" s="4">
         <v>11</v>
       </c>
       <c r="Y15" s="10">
         <v>0.75760000000000005</v>
       </c>
-      <c r="AA15" s="20"/>
+      <c r="AA15" s="22"/>
       <c r="AB15" s="4">
         <v>11</v>
       </c>
       <c r="AC15" s="10">
         <v>0.83840000000000003</v>
       </c>
-      <c r="AE15" s="20"/>
+      <c r="AE15" s="22"/>
       <c r="AF15" s="4">
         <v>11</v>
       </c>
@@ -3375,7 +3613,7 @@
       <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2">
@@ -3399,7 +3637,7 @@
       <c r="I16" s="8">
         <v>0.71719999999999995</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="20" t="s">
         <v>17</v>
       </c>
       <c r="L16" s="2">
@@ -3408,7 +3646,7 @@
       <c r="M16" s="8">
         <v>0.74029999999999996</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="O16" s="20" t="s">
         <v>17</v>
       </c>
       <c r="P16" s="2">
@@ -3417,7 +3655,7 @@
       <c r="Q16" s="8">
         <v>0.71719999999999995</v>
       </c>
-      <c r="S16" s="18" t="s">
+      <c r="S16" s="20" t="s">
         <v>17</v>
       </c>
       <c r="T16" s="2">
@@ -3426,7 +3664,7 @@
       <c r="U16" s="8">
         <v>0.71719999999999995</v>
       </c>
-      <c r="W16" s="18" t="s">
+      <c r="W16" s="20" t="s">
         <v>17</v>
       </c>
       <c r="X16" s="2">
@@ -3435,7 +3673,7 @@
       <c r="Y16" s="8">
         <v>0.71719999999999995</v>
       </c>
-      <c r="AA16" s="18" t="s">
+      <c r="AA16" s="20" t="s">
         <v>17</v>
       </c>
       <c r="AB16" s="2">
@@ -3444,7 +3682,7 @@
       <c r="AC16" s="8">
         <v>0.79800000000000004</v>
       </c>
-      <c r="AE16" s="18" t="s">
+      <c r="AE16" s="20" t="s">
         <v>17</v>
       </c>
       <c r="AF16" s="2">
@@ -3458,7 +3696,7 @@
       <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="4">
         <v>3</v>
       </c>
@@ -3480,42 +3718,42 @@
       <c r="I17" s="9">
         <v>0.75529999999999997</v>
       </c>
-      <c r="K17" s="19"/>
+      <c r="K17" s="21"/>
       <c r="L17" s="4">
         <v>3</v>
       </c>
       <c r="M17" s="9">
         <v>0.74029999999999996</v>
       </c>
-      <c r="O17" s="19"/>
+      <c r="O17" s="21"/>
       <c r="P17" s="4">
         <v>3</v>
       </c>
       <c r="Q17" s="9">
         <v>0.71879999999999999</v>
       </c>
-      <c r="S17" s="19"/>
+      <c r="S17" s="21"/>
       <c r="T17" s="4">
         <v>3</v>
       </c>
       <c r="U17" s="9">
         <v>0.72529999999999994</v>
       </c>
-      <c r="W17" s="19"/>
+      <c r="W17" s="21"/>
       <c r="X17" s="4">
         <v>3</v>
       </c>
       <c r="Y17" s="9">
         <v>0.72150000000000003</v>
       </c>
-      <c r="AA17" s="19"/>
+      <c r="AA17" s="21"/>
       <c r="AB17" s="4">
         <v>3</v>
       </c>
       <c r="AC17" s="9">
         <v>0.77780000000000005</v>
       </c>
-      <c r="AE17" s="19"/>
+      <c r="AE17" s="21"/>
       <c r="AF17" s="4">
         <v>3</v>
       </c>
@@ -3527,7 +3765,7 @@
       <c r="A18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="4">
         <v>5</v>
       </c>
@@ -3549,42 +3787,42 @@
       <c r="I18" s="9">
         <v>0.76970000000000005</v>
       </c>
-      <c r="K18" s="19"/>
+      <c r="K18" s="21"/>
       <c r="L18" s="4">
         <v>5</v>
       </c>
       <c r="M18" s="9">
         <v>0.74680000000000002</v>
       </c>
-      <c r="O18" s="19"/>
+      <c r="O18" s="21"/>
       <c r="P18" s="4">
         <v>5</v>
       </c>
       <c r="Q18" s="9">
         <v>0.72519999999999996</v>
       </c>
-      <c r="S18" s="19"/>
+      <c r="S18" s="21"/>
       <c r="T18" s="4">
         <v>5</v>
       </c>
       <c r="U18" s="9">
         <v>0.73029999999999995</v>
       </c>
-      <c r="W18" s="19"/>
+      <c r="W18" s="21"/>
       <c r="X18" s="4">
         <v>5</v>
       </c>
       <c r="Y18" s="9">
         <v>0.72740000000000005</v>
       </c>
-      <c r="AA18" s="19"/>
+      <c r="AA18" s="21"/>
       <c r="AB18" s="4">
         <v>5</v>
       </c>
       <c r="AC18" s="9">
         <v>0.78790000000000004</v>
       </c>
-      <c r="AE18" s="19"/>
+      <c r="AE18" s="21"/>
       <c r="AF18" s="4">
         <v>5</v>
       </c>
@@ -3596,7 +3834,7 @@
       <c r="A19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="4">
         <v>7</v>
       </c>
@@ -3618,42 +3856,42 @@
       <c r="I19" s="9">
         <v>0.79690000000000005</v>
       </c>
-      <c r="K19" s="19"/>
+      <c r="K19" s="21"/>
       <c r="L19" s="4">
         <v>7</v>
       </c>
       <c r="M19" s="9">
         <v>0.79220000000000002</v>
       </c>
-      <c r="O19" s="19"/>
+      <c r="O19" s="21"/>
       <c r="P19" s="4">
         <v>7</v>
       </c>
       <c r="Q19" s="9">
         <v>0.77370000000000005</v>
       </c>
-      <c r="S19" s="19"/>
+      <c r="S19" s="21"/>
       <c r="T19" s="4">
         <v>7</v>
       </c>
       <c r="U19" s="9">
         <v>0.77370000000000005</v>
       </c>
-      <c r="W19" s="19"/>
+      <c r="W19" s="21"/>
       <c r="X19" s="4">
         <v>7</v>
       </c>
       <c r="Y19" s="9">
         <v>0.77370000000000005</v>
       </c>
-      <c r="AA19" s="19"/>
+      <c r="AA19" s="21"/>
       <c r="AB19" s="4">
         <v>7</v>
       </c>
       <c r="AC19" s="9">
         <v>0.83840000000000003</v>
       </c>
-      <c r="AE19" s="19"/>
+      <c r="AE19" s="21"/>
       <c r="AF19" s="4">
         <v>7</v>
       </c>
@@ -3665,7 +3903,7 @@
       <c r="A20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="4">
         <v>9</v>
       </c>
@@ -3687,42 +3925,42 @@
       <c r="I20" s="9">
         <v>0.80600000000000005</v>
       </c>
-      <c r="K20" s="19"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="4">
         <v>9</v>
       </c>
       <c r="M20" s="9">
         <v>0.7792</v>
       </c>
-      <c r="O20" s="19"/>
+      <c r="O20" s="21"/>
       <c r="P20" s="4">
         <v>9</v>
       </c>
       <c r="Q20" s="9">
         <v>0.75990000000000002</v>
       </c>
-      <c r="S20" s="19"/>
+      <c r="S20" s="21"/>
       <c r="T20" s="4">
         <v>9</v>
       </c>
       <c r="U20" s="9">
         <v>0.75560000000000005</v>
       </c>
-      <c r="W20" s="19"/>
+      <c r="W20" s="21"/>
       <c r="X20" s="4">
         <v>9</v>
       </c>
       <c r="Y20" s="9">
         <v>0.75760000000000005</v>
       </c>
-      <c r="AA20" s="19"/>
+      <c r="AA20" s="21"/>
       <c r="AB20" s="4">
         <v>9</v>
       </c>
       <c r="AC20" s="9">
         <v>0.83840000000000003</v>
       </c>
-      <c r="AE20" s="19"/>
+      <c r="AE20" s="21"/>
       <c r="AF20" s="4">
         <v>9</v>
       </c>
@@ -3734,7 +3972,7 @@
       <c r="A21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="4">
         <v>11</v>
       </c>
@@ -3756,42 +3994,42 @@
       <c r="I21" s="10">
         <v>0.81289999999999996</v>
       </c>
-      <c r="K21" s="20"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="4">
         <v>11</v>
       </c>
       <c r="M21" s="10">
         <v>0.77270000000000005</v>
       </c>
-      <c r="O21" s="20"/>
+      <c r="O21" s="22"/>
       <c r="P21" s="4">
         <v>11</v>
       </c>
       <c r="Q21" s="10">
         <v>0.75290000000000001</v>
       </c>
-      <c r="S21" s="20"/>
+      <c r="S21" s="22"/>
       <c r="T21" s="4">
         <v>11</v>
       </c>
       <c r="U21" s="10">
         <v>0.75860000000000005</v>
       </c>
-      <c r="W21" s="20"/>
+      <c r="W21" s="22"/>
       <c r="X21" s="4">
         <v>11</v>
       </c>
       <c r="Y21" s="10">
         <v>0.75539999999999996</v>
       </c>
-      <c r="AA21" s="20"/>
+      <c r="AA21" s="22"/>
       <c r="AB21" s="4">
         <v>11</v>
       </c>
       <c r="AC21" s="10">
         <v>0.80810000000000004</v>
       </c>
-      <c r="AE21" s="20"/>
+      <c r="AE21" s="22"/>
       <c r="AF21" s="4">
         <v>11</v>
       </c>
@@ -3803,7 +4041,7 @@
       <c r="A22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2">
@@ -3827,7 +4065,7 @@
       <c r="I22" s="8">
         <v>0.69799999999999995</v>
       </c>
-      <c r="K22" s="18" t="s">
+      <c r="K22" s="20" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="2">
@@ -3836,7 +4074,7 @@
       <c r="M22" s="8">
         <v>0.7208</v>
       </c>
-      <c r="O22" s="18" t="s">
+      <c r="O22" s="20" t="s">
         <v>18</v>
       </c>
       <c r="P22" s="2">
@@ -3845,7 +4083,7 @@
       <c r="Q22" s="8">
         <v>0.69640000000000002</v>
       </c>
-      <c r="S22" s="18" t="s">
+      <c r="S22" s="20" t="s">
         <v>18</v>
       </c>
       <c r="T22" s="2">
@@ -3854,7 +4092,7 @@
       <c r="U22" s="8">
         <v>0.69799999999999995</v>
       </c>
-      <c r="W22" s="18" t="s">
+      <c r="W22" s="20" t="s">
         <v>18</v>
       </c>
       <c r="X22" s="2">
@@ -3863,7 +4101,7 @@
       <c r="Y22" s="8">
         <v>0.69720000000000004</v>
       </c>
-      <c r="AA22" s="18" t="s">
+      <c r="AA22" s="20" t="s">
         <v>18</v>
       </c>
       <c r="AB22" s="2">
@@ -3872,7 +4110,7 @@
       <c r="AC22" s="8">
         <v>0.77780000000000005</v>
       </c>
-      <c r="AE22" s="18" t="s">
+      <c r="AE22" s="20" t="s">
         <v>18</v>
       </c>
       <c r="AF22" s="2">
@@ -3886,7 +4124,7 @@
       <c r="A23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="4">
         <v>3</v>
       </c>
@@ -3908,42 +4146,42 @@
       <c r="I23" s="9">
         <v>0.73909999999999998</v>
       </c>
-      <c r="K23" s="19"/>
+      <c r="K23" s="21"/>
       <c r="L23" s="4">
         <v>3</v>
       </c>
       <c r="M23" s="9">
         <v>0.70130000000000003</v>
       </c>
-      <c r="O23" s="19"/>
+      <c r="O23" s="21"/>
       <c r="P23" s="4">
         <v>3</v>
       </c>
       <c r="Q23" s="9">
         <v>0.68130000000000002</v>
       </c>
-      <c r="S23" s="19"/>
+      <c r="S23" s="21"/>
       <c r="T23" s="4">
         <v>3</v>
       </c>
       <c r="U23" s="9">
         <v>0.69089999999999996</v>
       </c>
-      <c r="W23" s="19"/>
+      <c r="W23" s="21"/>
       <c r="X23" s="4">
         <v>3</v>
       </c>
       <c r="Y23" s="9">
         <v>0.68400000000000005</v>
       </c>
-      <c r="AA23" s="19"/>
+      <c r="AA23" s="21"/>
       <c r="AB23" s="4">
         <v>3</v>
       </c>
       <c r="AC23" s="9">
         <v>0.72729999999999995</v>
       </c>
-      <c r="AE23" s="19"/>
+      <c r="AE23" s="21"/>
       <c r="AF23" s="4">
         <v>3</v>
       </c>
@@ -3955,7 +4193,7 @@
       <c r="A24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="4">
         <v>5</v>
       </c>
@@ -3977,42 +4215,42 @@
       <c r="I24" s="9">
         <v>0.75329999999999997</v>
       </c>
-      <c r="K24" s="19"/>
+      <c r="K24" s="21"/>
       <c r="L24" s="4">
         <v>5</v>
       </c>
       <c r="M24" s="9">
         <v>0.7208</v>
       </c>
-      <c r="O24" s="19"/>
+      <c r="O24" s="21"/>
       <c r="P24" s="4">
         <v>5</v>
       </c>
       <c r="Q24" s="9">
         <v>0.6976</v>
       </c>
-      <c r="S24" s="19"/>
+      <c r="S24" s="21"/>
       <c r="T24" s="4">
         <v>5</v>
       </c>
       <c r="U24" s="9">
         <v>0.70199999999999996</v>
       </c>
-      <c r="W24" s="19"/>
+      <c r="W24" s="21"/>
       <c r="X24" s="4">
         <v>5</v>
       </c>
       <c r="Y24" s="9">
         <v>0.69950000000000001</v>
       </c>
-      <c r="AA24" s="19"/>
+      <c r="AA24" s="21"/>
       <c r="AB24" s="4">
         <v>5</v>
       </c>
       <c r="AC24" s="9">
         <v>0.76770000000000005</v>
       </c>
-      <c r="AE24" s="19"/>
+      <c r="AE24" s="21"/>
       <c r="AF24" s="4">
         <v>5</v>
       </c>
@@ -4024,7 +4262,7 @@
       <c r="A25" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="4">
         <v>7</v>
       </c>
@@ -4046,42 +4284,42 @@
       <c r="I25" s="9">
         <v>0.77280000000000004</v>
       </c>
-      <c r="K25" s="19"/>
+      <c r="K25" s="21"/>
       <c r="L25" s="4">
         <v>7</v>
       </c>
       <c r="M25" s="9">
         <v>0.73380000000000001</v>
       </c>
-      <c r="O25" s="19"/>
+      <c r="O25" s="21"/>
       <c r="P25" s="4">
         <v>7</v>
       </c>
       <c r="Q25" s="9">
         <v>0.71140000000000003</v>
       </c>
-      <c r="S25" s="19"/>
+      <c r="S25" s="21"/>
       <c r="T25" s="4">
         <v>7</v>
       </c>
       <c r="U25" s="9">
         <v>0.71619999999999995</v>
       </c>
-      <c r="W25" s="19"/>
+      <c r="W25" s="21"/>
       <c r="X25" s="4">
         <v>7</v>
       </c>
       <c r="Y25" s="9">
         <v>0.71350000000000002</v>
       </c>
-      <c r="AA25" s="19"/>
+      <c r="AA25" s="21"/>
       <c r="AB25" s="4">
         <v>7</v>
       </c>
       <c r="AC25" s="9">
         <v>0.77780000000000005</v>
       </c>
-      <c r="AE25" s="19"/>
+      <c r="AE25" s="21"/>
       <c r="AF25" s="4">
         <v>7</v>
       </c>
@@ -4093,7 +4331,7 @@
       <c r="A26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="4">
         <v>9</v>
       </c>
@@ -4115,42 +4353,42 @@
       <c r="I26" s="9">
         <v>0.78339999999999999</v>
       </c>
-      <c r="K26" s="19"/>
+      <c r="K26" s="21"/>
       <c r="L26" s="4">
         <v>9</v>
       </c>
       <c r="M26" s="9">
         <v>0.74029999999999996</v>
       </c>
-      <c r="O26" s="19"/>
+      <c r="O26" s="21"/>
       <c r="P26" s="4">
         <v>9</v>
       </c>
       <c r="Q26" s="9">
         <v>0.71719999999999995</v>
       </c>
-      <c r="S26" s="19"/>
+      <c r="S26" s="21"/>
       <c r="T26" s="4">
         <v>9</v>
       </c>
       <c r="U26" s="9">
         <v>0.71719999999999995</v>
       </c>
-      <c r="W26" s="19"/>
+      <c r="W26" s="21"/>
       <c r="X26" s="4">
         <v>9</v>
       </c>
       <c r="Y26" s="9">
         <v>0.71719999999999995</v>
       </c>
-      <c r="AA26" s="19"/>
+      <c r="AA26" s="21"/>
       <c r="AB26" s="4">
         <v>9</v>
       </c>
       <c r="AC26" s="9">
         <v>0.79800000000000004</v>
       </c>
-      <c r="AE26" s="19"/>
+      <c r="AE26" s="21"/>
       <c r="AF26" s="4">
         <v>9</v>
       </c>
@@ -4162,7 +4400,7 @@
       <c r="A27" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="5">
         <v>11</v>
       </c>
@@ -4184,42 +4422,42 @@
       <c r="I27" s="10">
         <v>0.78739999999999999</v>
       </c>
-      <c r="K27" s="20"/>
+      <c r="K27" s="22"/>
       <c r="L27" s="5">
         <v>11</v>
       </c>
       <c r="M27" s="10">
         <v>0.72729999999999995</v>
       </c>
-      <c r="O27" s="20"/>
+      <c r="O27" s="22"/>
       <c r="P27" s="5">
         <v>11</v>
       </c>
       <c r="Q27" s="10">
         <v>0.70240000000000002</v>
       </c>
-      <c r="S27" s="20"/>
+      <c r="S27" s="22"/>
       <c r="T27" s="5">
         <v>11</v>
       </c>
       <c r="U27" s="10">
         <v>0.69899999999999995</v>
       </c>
-      <c r="W27" s="20"/>
+      <c r="W27" s="22"/>
       <c r="X27" s="5">
         <v>11</v>
       </c>
       <c r="Y27" s="10">
         <v>0.7006</v>
       </c>
-      <c r="AA27" s="20"/>
+      <c r="AA27" s="22"/>
       <c r="AB27" s="5">
         <v>11</v>
       </c>
       <c r="AC27" s="10">
         <v>0.79800000000000004</v>
       </c>
-      <c r="AE27" s="20"/>
+      <c r="AE27" s="22"/>
       <c r="AF27" s="5">
         <v>11</v>
       </c>
@@ -4239,35 +4477,24 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="O4:O9"/>
-    <mergeCell ref="O10:O15"/>
     <mergeCell ref="O16:O21"/>
     <mergeCell ref="O22:O27"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="K10:K15"/>
+    <mergeCell ref="K16:K21"/>
+    <mergeCell ref="K22:K27"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="S4:S9"/>
+    <mergeCell ref="O4:O9"/>
+    <mergeCell ref="O10:O15"/>
+    <mergeCell ref="W10:W15"/>
+    <mergeCell ref="W16:W21"/>
+    <mergeCell ref="W22:W27"/>
     <mergeCell ref="S10:S15"/>
     <mergeCell ref="S16:S21"/>
     <mergeCell ref="S22:S27"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="W4:W9"/>
-    <mergeCell ref="W10:W15"/>
-    <mergeCell ref="W16:W21"/>
-    <mergeCell ref="W22:W27"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AA4:AA9"/>
-    <mergeCell ref="AA10:AA15"/>
-    <mergeCell ref="AA16:AA21"/>
-    <mergeCell ref="K10:K15"/>
-    <mergeCell ref="K16:K21"/>
-    <mergeCell ref="K22:K27"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
@@ -4275,19 +4502,163 @@
     <mergeCell ref="K4:K9"/>
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AE4:AE9"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AA4:AA9"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="W4:W9"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="AE10:AE15"/>
     <mergeCell ref="AE16:AE21"/>
     <mergeCell ref="AE22:AE27"/>
     <mergeCell ref="AA22:AA27"/>
     <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AA10:AA15"/>
+    <mergeCell ref="AA16:AA21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E72B882-CFB5-4FA3-A22E-50448EE5D5B2}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="17"/>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1.035E-2</v>
+      </c>
+      <c r="C3" s="12">
+        <v>9.0900000000000009E-3</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1.6480000000000002E-2</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1.0109999999999999E-2</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1.545E-2</v>
+      </c>
+      <c r="G3" s="12">
+        <v>3.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="12">
+        <v>8.3629999999999996E-2</v>
+      </c>
+      <c r="C4" s="12">
+        <v>7.7369999999999994E-2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>6.497E-2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>7.4130000000000001E-2</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.13453999999999999</v>
+      </c>
+      <c r="G4" s="12">
+        <v>5.6030000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="12">
+        <v>5.2729999999999999E-2</v>
+      </c>
+      <c r="C5" s="12">
+        <v>4.1119999999999997E-2</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3.2840000000000001E-2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3.8920000000000003E-2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.40317999999999998</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.43839</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A0068C-E3DB-4E6F-A29B-839F09CA844E}">
   <dimension ref="B2:N14"/>
   <sheetViews>
@@ -4313,53 +4684,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="15" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="15"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="15"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
@@ -4521,53 +4892,53 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="15" t="s">
+      <c r="J9" s="18"/>
+      <c r="K9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15" t="s">
+      <c r="L9" s="17"/>
+      <c r="M9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="15"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="15"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
@@ -4677,4 +5048,2982 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D99B6CA-E8B4-441C-8128-A0C5FD5264B1}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>148</v>
+      </c>
+      <c r="D2" s="1">
+        <v>72</v>
+      </c>
+      <c r="E2" s="1">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.627</v>
+      </c>
+      <c r="I2" s="1">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>85</v>
+      </c>
+      <c r="D3" s="1">
+        <v>66</v>
+      </c>
+      <c r="E3" s="1">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>26.6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="I3" s="1">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>183</v>
+      </c>
+      <c r="D4" s="1">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="I4" s="1">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1">
+        <v>94</v>
+      </c>
+      <c r="G5" s="1">
+        <v>28.1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>137</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1">
+        <v>168</v>
+      </c>
+      <c r="G6" s="1">
+        <v>43.1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="I6" s="1">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>768</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>93</v>
+      </c>
+      <c r="D8" s="1">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.315</v>
+      </c>
+      <c r="I8" s="1">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF26F7C-9F83-4952-943E-9649A4A1FFDF}">
+  <dimension ref="A1:I79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29">
+        <v>0.422110553</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <v>9.6498718999999997E-2</v>
+      </c>
+      <c r="E3" s="29">
+        <v>0</v>
+      </c>
+      <c r="F3" s="29">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29">
+        <v>0.56281407000000006</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0.42026825600000001</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0.51409052099999997</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0.48333333299999998</v>
+      </c>
+      <c r="F4" s="29">
+        <v>1</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="28">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0.69849246200000004</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.427719821</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0.24594363799999999</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1.6666667E-2</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="28">
+        <v>4</v>
+      </c>
+      <c r="B6" s="29">
+        <v>0.80904522599999995</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0.32637853900000002</v>
+      </c>
+      <c r="D6" s="29">
+        <v>7.5149444999999995E-2</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0.73333333300000003</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29">
+        <v>0.67336683399999997</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0.68852458999999999</v>
+      </c>
+      <c r="D7" s="29">
+        <v>6.8317676999999993E-2</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0.41666666699999999</v>
+      </c>
+      <c r="F7" s="29">
+        <v>1</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="28">
+        <v>614</v>
+      </c>
+      <c r="B9" s="29">
+        <v>0.62814070399999999</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0.33532041699999998</v>
+      </c>
+      <c r="D9" s="29">
+        <v>7.8565329000000003E-2</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="28">
+        <v>1</v>
+      </c>
+      <c r="B13" s="29">
+        <v>0.49246231200000001</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0.506706408</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0.15029888999999999</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.366666667</v>
+      </c>
+      <c r="F13" s="29">
+        <v>0</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="28">
+        <v>2</v>
+      </c>
+      <c r="B14" s="29">
+        <v>0.56281407000000006</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0.53204172900000002</v>
+      </c>
+      <c r="D14" s="29">
+        <v>2.9888984E-2</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0</v>
+      </c>
+      <c r="F14" s="29">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="28">
+        <v>3</v>
+      </c>
+      <c r="B15" s="29">
+        <v>0.54271356800000004</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0.45901639300000002</v>
+      </c>
+      <c r="D15" s="29">
+        <v>3.4158839000000003E-2</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="28">
+        <v>4</v>
+      </c>
+      <c r="B16" s="29">
+        <v>0.53768844199999999</v>
+      </c>
+      <c r="C16" s="29">
+        <v>0.36661698999999998</v>
+      </c>
+      <c r="D16" s="29">
+        <v>0.33219470499999998</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0.21666666700000001</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="28">
+        <v>5</v>
+      </c>
+      <c r="B17" s="29">
+        <v>0.68341708499999998</v>
+      </c>
+      <c r="C17" s="29">
+        <v>0.44560357699999997</v>
+      </c>
+      <c r="D17" s="29">
+        <v>5.6362084E-2</v>
+      </c>
+      <c r="E17" s="29">
+        <v>0.48333333299999998</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="28">
+        <v>154</v>
+      </c>
+      <c r="B19" s="29">
+        <v>0.37185929600000001</v>
+      </c>
+      <c r="C19" s="29">
+        <v>0.52608047700000005</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0.26771989800000001</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="29">
+        <v>0</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="28">
+        <v>1</v>
+      </c>
+      <c r="B23" s="29">
+        <v>-1.1513979240000001</v>
+      </c>
+      <c r="C23" s="29">
+        <v>-4.1352557790000004</v>
+      </c>
+      <c r="D23" s="29">
+        <v>-0.49073478999999998</v>
+      </c>
+      <c r="E23" s="29">
+        <v>-1.0359403789999999</v>
+      </c>
+      <c r="F23" s="29">
+        <v>0</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="28">
+        <v>2</v>
+      </c>
+      <c r="B24" s="29">
+        <v>-0.27664282600000001</v>
+      </c>
+      <c r="C24" s="29">
+        <v>-0.48916880600000001</v>
+      </c>
+      <c r="D24" s="29">
+        <v>2.4150299099999999</v>
+      </c>
+      <c r="E24" s="29">
+        <v>1.4871008459999999</v>
+      </c>
+      <c r="F24" s="29">
+        <v>1</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="28">
+        <v>3</v>
+      </c>
+      <c r="B25" s="29">
+        <v>0.56687101799999995</v>
+      </c>
+      <c r="C25" s="29">
+        <v>-0.42452187400000002</v>
+      </c>
+      <c r="D25" s="29">
+        <v>0.54916055200000002</v>
+      </c>
+      <c r="E25" s="29">
+        <v>-0.94893895800000005</v>
+      </c>
+      <c r="F25" s="29">
+        <v>0</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="28">
+        <v>4</v>
+      </c>
+      <c r="B26" s="29">
+        <v>1.254178595</v>
+      </c>
+      <c r="C26" s="29">
+        <v>-1.303720151</v>
+      </c>
+      <c r="D26" s="29">
+        <v>-0.63929126700000005</v>
+      </c>
+      <c r="E26" s="29">
+        <v>2.7921221690000002</v>
+      </c>
+      <c r="F26" s="29">
+        <v>0</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="28">
+        <v>5</v>
+      </c>
+      <c r="B27" s="29">
+        <v>0.41066475099999999</v>
+      </c>
+      <c r="C27" s="29">
+        <v>1.8381207509999999</v>
+      </c>
+      <c r="D27" s="29">
+        <v>-0.68682933999999995</v>
+      </c>
+      <c r="E27" s="29">
+        <v>1.139095159</v>
+      </c>
+      <c r="F27" s="29">
+        <v>1</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="28">
+        <v>614</v>
+      </c>
+      <c r="B29" s="29">
+        <v>0.129493469</v>
+      </c>
+      <c r="C29" s="29">
+        <v>-1.226143832</v>
+      </c>
+      <c r="D29" s="29">
+        <v>-0.61552223100000003</v>
+      </c>
+      <c r="E29" s="29">
+        <v>-1.0359403789999999</v>
+      </c>
+      <c r="F29" s="29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="28">
+        <v>1</v>
+      </c>
+      <c r="B33" s="29">
+        <v>-0.71402037500000004</v>
+      </c>
+      <c r="C33" s="29">
+        <v>0.26073560699999998</v>
+      </c>
+      <c r="D33" s="29">
+        <v>-0.11637246699999999</v>
+      </c>
+      <c r="E33" s="29">
+        <v>0.87809089500000004</v>
+      </c>
+      <c r="F33" s="29">
+        <v>0</v>
+      </c>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="28">
+        <v>2</v>
+      </c>
+      <c r="B34" s="29">
+        <v>-0.27664282600000001</v>
+      </c>
+      <c r="C34" s="29">
+        <v>0.48053517600000001</v>
+      </c>
+      <c r="D34" s="29">
+        <v>-0.95423100000000005</v>
+      </c>
+      <c r="E34" s="29">
+        <v>-1.0359403789999999</v>
+      </c>
+      <c r="F34" s="29">
+        <v>0</v>
+      </c>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="28">
+        <v>3</v>
+      </c>
+      <c r="B35" s="29">
+        <v>-0.40160783999999999</v>
+      </c>
+      <c r="C35" s="29">
+        <v>-0.15300475899999999</v>
+      </c>
+      <c r="D35" s="29">
+        <v>-0.92451970400000005</v>
+      </c>
+      <c r="E35" s="29">
+        <v>-1.0359403789999999</v>
+      </c>
+      <c r="F35" s="29">
+        <v>0</v>
+      </c>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="28">
+        <v>4</v>
+      </c>
+      <c r="B36" s="29">
+        <v>-0.43284909399999999</v>
+      </c>
+      <c r="C36" s="29">
+        <v>-0.95462671700000001</v>
+      </c>
+      <c r="D36" s="29">
+        <v>1.1493287210000001</v>
+      </c>
+      <c r="E36" s="29">
+        <v>9.5078100999999998E-2</v>
+      </c>
+      <c r="F36" s="29">
+        <v>0</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="28">
+        <v>5</v>
+      </c>
+      <c r="B37" s="29">
+        <v>0.47314725800000001</v>
+      </c>
+      <c r="C37" s="29">
+        <v>-0.26936923600000001</v>
+      </c>
+      <c r="D37" s="29">
+        <v>-0.77002096799999997</v>
+      </c>
+      <c r="E37" s="29">
+        <v>1.4871008459999999</v>
+      </c>
+      <c r="F37" s="29">
+        <v>0</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="28">
+        <v>154</v>
+      </c>
+      <c r="B39" s="29">
+        <v>-1.4638104590000001</v>
+      </c>
+      <c r="C39" s="29">
+        <v>0.42881763099999998</v>
+      </c>
+      <c r="D39" s="29">
+        <v>0.70068815900000003</v>
+      </c>
+      <c r="E39" s="29">
+        <v>0.53008520800000003</v>
+      </c>
+      <c r="F39" s="29">
+        <v>0</v>
+      </c>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="28">
+        <v>1</v>
+      </c>
+      <c r="B43" s="29">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C43" s="29">
+        <v>0</v>
+      </c>
+      <c r="D43" s="29">
+        <v>3.04E-2</v>
+      </c>
+      <c r="E43" s="29">
+        <v>0.21</v>
+      </c>
+      <c r="F43" s="29">
+        <v>0</v>
+      </c>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="28">
+        <v>2</v>
+      </c>
+      <c r="B44" s="29">
+        <v>0.112</v>
+      </c>
+      <c r="C44" s="29">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="D44" s="29">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="E44" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="29">
+        <v>1</v>
+      </c>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="28">
+        <v>3</v>
+      </c>
+      <c r="B45" s="29">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="C45" s="29">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="D45" s="29">
+        <v>6.54E-2</v>
+      </c>
+      <c r="E45" s="29">
+        <v>0.22</v>
+      </c>
+      <c r="F45" s="29">
+        <v>0</v>
+      </c>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="28">
+        <v>4</v>
+      </c>
+      <c r="B46" s="29">
+        <v>0.161</v>
+      </c>
+      <c r="C46" s="29">
+        <v>0.219</v>
+      </c>
+      <c r="D46" s="29">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="E46" s="29">
+        <v>0.65</v>
+      </c>
+      <c r="F46" s="29">
+        <v>0</v>
+      </c>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="28">
+        <v>5</v>
+      </c>
+      <c r="B47" s="29">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="C47" s="29">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="D47" s="29">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="E47" s="29">
+        <v>0.46</v>
+      </c>
+      <c r="F47" s="29">
+        <v>1</v>
+      </c>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+    </row>
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="28">
+        <v>614</v>
+      </c>
+      <c r="B49" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="C49" s="29">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D49" s="29">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="E49" s="29">
+        <v>0.21</v>
+      </c>
+      <c r="F49" s="29">
+        <v>0</v>
+      </c>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="28">
+        <v>1</v>
+      </c>
+      <c r="B53" s="29">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C53" s="29">
+        <v>0.34</v>
+      </c>
+      <c r="D53" s="29">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E53" s="29">
+        <v>0.43</v>
+      </c>
+      <c r="F53" s="29">
+        <v>0</v>
+      </c>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="28">
+        <v>2</v>
+      </c>
+      <c r="B54" s="29">
+        <v>0.112</v>
+      </c>
+      <c r="C54" s="29">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="D54" s="29">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="E54" s="29">
+        <v>0.21</v>
+      </c>
+      <c r="F54" s="29">
+        <v>0</v>
+      </c>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="28">
+        <v>3</v>
+      </c>
+      <c r="B55" s="29">
+        <v>0.108</v>
+      </c>
+      <c r="C55" s="29">
+        <v>0.308</v>
+      </c>
+      <c r="D55" s="29">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="E55" s="29">
+        <v>0.21</v>
+      </c>
+      <c r="F55" s="29">
+        <v>0</v>
+      </c>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="28">
+        <v>4</v>
+      </c>
+      <c r="B56" s="29">
+        <v>0.107</v>
+      </c>
+      <c r="C56" s="29">
+        <v>0.246</v>
+      </c>
+      <c r="D56" s="29">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="E56" s="29">
+        <v>0.34</v>
+      </c>
+      <c r="F56" s="29">
+        <v>0</v>
+      </c>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="28">
+        <v>5</v>
+      </c>
+      <c r="B57" s="29">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C57" s="29">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D57" s="29">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E57" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="29">
+        <v>0</v>
+      </c>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="28">
+        <v>154</v>
+      </c>
+      <c r="B59" s="29">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C59" s="29">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D59" s="29">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="E59" s="29">
+        <v>0.39</v>
+      </c>
+      <c r="F59" s="29">
+        <v>0</v>
+      </c>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+    </row>
+    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="28">
+        <v>1</v>
+      </c>
+      <c r="B63" s="29">
+        <v>84</v>
+      </c>
+      <c r="C63" s="29">
+        <v>0</v>
+      </c>
+      <c r="D63" s="29">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="E63" s="29">
+        <v>21</v>
+      </c>
+      <c r="F63" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="28">
+        <v>2</v>
+      </c>
+      <c r="B64" s="29">
+        <v>112</v>
+      </c>
+      <c r="C64" s="29">
+        <v>28.2</v>
+      </c>
+      <c r="D64" s="29">
+        <v>1.282</v>
+      </c>
+      <c r="E64" s="29">
+        <v>50</v>
+      </c>
+      <c r="F64" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="28">
+        <v>3</v>
+      </c>
+      <c r="B65" s="29">
+        <v>139</v>
+      </c>
+      <c r="C65" s="29">
+        <v>28.7</v>
+      </c>
+      <c r="D65" s="29">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="E65" s="29">
+        <v>22</v>
+      </c>
+      <c r="F65" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="28">
+        <v>4</v>
+      </c>
+      <c r="B66" s="29">
+        <v>161</v>
+      </c>
+      <c r="C66" s="29">
+        <v>21.9</v>
+      </c>
+      <c r="D66" s="29">
+        <v>0.254</v>
+      </c>
+      <c r="E66" s="29">
+        <v>65</v>
+      </c>
+      <c r="F66" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="28">
+        <v>5</v>
+      </c>
+      <c r="B67" s="29">
+        <v>134</v>
+      </c>
+      <c r="C67" s="29">
+        <v>46.2</v>
+      </c>
+      <c r="D67" s="29">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E67" s="29">
+        <v>46</v>
+      </c>
+      <c r="F67" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="28">
+        <v>614</v>
+      </c>
+      <c r="B69" s="29">
+        <v>125</v>
+      </c>
+      <c r="C69" s="29">
+        <v>22.5</v>
+      </c>
+      <c r="D69" s="29">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="E69" s="29">
+        <v>21</v>
+      </c>
+      <c r="F69" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="28">
+        <v>1</v>
+      </c>
+      <c r="B73" s="29">
+        <v>98</v>
+      </c>
+      <c r="C73" s="29">
+        <v>34</v>
+      </c>
+      <c r="D73" s="29">
+        <v>0.43</v>
+      </c>
+      <c r="E73" s="29">
+        <v>43</v>
+      </c>
+      <c r="F73" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="28">
+        <v>2</v>
+      </c>
+      <c r="B74" s="29">
+        <v>112</v>
+      </c>
+      <c r="C74" s="29">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="D74" s="29">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E74" s="29">
+        <v>21</v>
+      </c>
+      <c r="F74" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="28">
+        <v>3</v>
+      </c>
+      <c r="B75" s="29">
+        <v>108</v>
+      </c>
+      <c r="C75" s="29">
+        <v>30.8</v>
+      </c>
+      <c r="D75" s="29">
+        <v>0.158</v>
+      </c>
+      <c r="E75" s="29">
+        <v>21</v>
+      </c>
+      <c r="F75" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="28">
+        <v>4</v>
+      </c>
+      <c r="B76" s="29">
+        <v>107</v>
+      </c>
+      <c r="C76" s="29">
+        <v>24.6</v>
+      </c>
+      <c r="D76" s="29">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="E76" s="29">
+        <v>34</v>
+      </c>
+      <c r="F76" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="28">
+        <v>5</v>
+      </c>
+      <c r="B77" s="29">
+        <v>136</v>
+      </c>
+      <c r="C77" s="29">
+        <v>29.9</v>
+      </c>
+      <c r="D77" s="29">
+        <v>0.21</v>
+      </c>
+      <c r="E77" s="29">
+        <v>50</v>
+      </c>
+      <c r="F77" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="28">
+        <v>154</v>
+      </c>
+      <c r="B79" s="29">
+        <v>74</v>
+      </c>
+      <c r="C79" s="29">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D79" s="29">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="E79" s="29">
+        <v>39</v>
+      </c>
+      <c r="F79" s="29">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A21:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5384CF5A-81F9-4D87-BBF2-2BA5A5E5499A}">
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4033936-82DE-49D7-9B62-48B725F78ADC}">
+  <dimension ref="B2:Q10"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1">
+        <v>768</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.8450000000000002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.37</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1">
+        <v>17</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="1">
+        <v>614</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1">
+        <v>768</v>
+      </c>
+      <c r="D4" s="1">
+        <v>120.895</v>
+      </c>
+      <c r="E4" s="1">
+        <v>31.972999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>99</v>
+      </c>
+      <c r="H4" s="1">
+        <v>117</v>
+      </c>
+      <c r="I4" s="1">
+        <v>140.25</v>
+      </c>
+      <c r="J4" s="1">
+        <v>199</v>
+      </c>
+      <c r="L4" s="19"/>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="1">
+        <v>154</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1">
+        <v>768</v>
+      </c>
+      <c r="D5" s="1">
+        <v>69.105000000000004</v>
+      </c>
+      <c r="E5" s="1">
+        <v>19.356000000000002</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>62</v>
+      </c>
+      <c r="H5" s="1">
+        <v>72</v>
+      </c>
+      <c r="I5" s="1">
+        <v>80</v>
+      </c>
+      <c r="J5" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1">
+        <v>768</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20.536000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15.952</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1">
+        <v>768</v>
+      </c>
+      <c r="D7" s="1">
+        <v>79.799000000000007</v>
+      </c>
+      <c r="E7" s="1">
+        <v>115.244</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>30.5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>127.25</v>
+      </c>
+      <c r="J7" s="1">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>768</v>
+      </c>
+      <c r="D8" s="1">
+        <v>31.992999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7.8840000000000003</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="J8" s="1">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1">
+        <v>768</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7.8E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.372</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.626</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1">
+        <v>768</v>
+      </c>
+      <c r="D10" s="1">
+        <v>33.241</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11.76</v>
+      </c>
+      <c r="F10" s="1">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1">
+        <v>29</v>
+      </c>
+      <c r="I10" s="1">
+        <v>41</v>
+      </c>
+      <c r="J10" s="1">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L3:L4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D691547A-C8A4-4583-A541-225574C9A77A}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="A1:H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="D2" s="36">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="E2" s="36">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="F2" s="36">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="G2" s="36">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="H2" s="36">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="17"/>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="36">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="D3" s="36">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="E3" s="36">
+        <v>0.72119999999999995</v>
+      </c>
+      <c r="F3" s="36">
+        <v>0.71940000000000004</v>
+      </c>
+      <c r="G3" s="36">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="H3" s="36">
+        <v>0.75870000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="36">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="D4" s="36">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0.72529999999999994</v>
+      </c>
+      <c r="F4" s="36">
+        <v>0.72150000000000003</v>
+      </c>
+      <c r="G4" s="36">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="H4" s="36">
+        <v>0.77190000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="17"/>
+      <c r="B5" s="1">
+        <v>7</v>
+      </c>
+      <c r="C5" s="36">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="D5" s="36">
+        <v>0.70650000000000002</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0.75760000000000005</v>
+      </c>
+      <c r="H5" s="36">
+        <v>0.77070000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="17"/>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" s="36">
+        <v>0.75319999999999998</v>
+      </c>
+      <c r="D6" s="36">
+        <v>0.73180000000000001</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0.73340000000000005</v>
+      </c>
+      <c r="G6" s="36">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="H6" s="36">
+        <v>0.77510000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="17"/>
+      <c r="B7" s="1">
+        <v>11</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0.75970000000000004</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0.74439999999999995</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0.74139999999999995</v>
+      </c>
+      <c r="G7" s="36">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="H7" s="36">
+        <v>0.7802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="36">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0.72119999999999995</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0.71940000000000004</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="H8" s="36">
+        <v>0.72119999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0.7792</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0.75960000000000005</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="G9" s="36">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="H9" s="36">
+        <v>0.78439999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="17"/>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="D10" s="36">
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.76870000000000005</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0.76759999999999995</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0.82830000000000004</v>
+      </c>
+      <c r="H10" s="36">
+        <v>0.79100000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0.81169999999999998</v>
+      </c>
+      <c r="D11" s="36">
+        <v>0.79459999999999997</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="F11" s="36">
+        <v>0.79579999999999995</v>
+      </c>
+      <c r="G11" s="36">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="H11" s="36">
+        <v>0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0.79869999999999997</v>
+      </c>
+      <c r="D12" s="36">
+        <v>0.78110000000000002</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0.80369999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0.7792</v>
+      </c>
+      <c r="D13" s="36">
+        <v>0.75990000000000002</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0.75760000000000005</v>
+      </c>
+      <c r="G13" s="36">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="H13" s="36">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="36">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="D14" s="36">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="F14" s="36">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="G14" s="36">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="H14" s="36">
+        <v>0.71719999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="36">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="D15" s="36">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0.72529999999999994</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0.72150000000000003</v>
+      </c>
+      <c r="G15" s="36">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="H15" s="36">
+        <v>0.75529999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="36">
+        <v>0.74680000000000002</v>
+      </c>
+      <c r="D16" s="36">
+        <v>0.72519999999999996</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0.73029999999999995</v>
+      </c>
+      <c r="F16" s="36">
+        <v>0.72740000000000005</v>
+      </c>
+      <c r="G16" s="36">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="H16" s="36">
+        <v>0.76970000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="17"/>
+      <c r="B17" s="1">
+        <v>7</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0.79220000000000002</v>
+      </c>
+      <c r="D17" s="36">
+        <v>0.77370000000000005</v>
+      </c>
+      <c r="E17" s="36">
+        <v>0.77370000000000005</v>
+      </c>
+      <c r="F17" s="36">
+        <v>0.77370000000000005</v>
+      </c>
+      <c r="G17" s="36">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="H17" s="36">
+        <v>0.79690000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="17"/>
+      <c r="B18" s="1">
+        <v>9</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0.7792</v>
+      </c>
+      <c r="D18" s="36">
+        <v>0.75990000000000002</v>
+      </c>
+      <c r="E18" s="36">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="F18" s="36">
+        <v>0.75760000000000005</v>
+      </c>
+      <c r="G18" s="36">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="H18" s="36">
+        <v>0.80600000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="17"/>
+      <c r="B19" s="1">
+        <v>11</v>
+      </c>
+      <c r="C19" s="36">
+        <v>0.77270000000000005</v>
+      </c>
+      <c r="D19" s="36">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="E19" s="36">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="F19" s="36">
+        <v>0.75539999999999996</v>
+      </c>
+      <c r="G19" s="36">
+        <v>0.80810000000000004</v>
+      </c>
+      <c r="H19" s="36">
+        <v>0.81289999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="36">
+        <v>0.7208</v>
+      </c>
+      <c r="D20" s="36">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="E20" s="36">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="F20" s="36">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="G20" s="36">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="H20" s="36">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="36">
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="D21" s="36">
+        <v>0.68130000000000002</v>
+      </c>
+      <c r="E21" s="36">
+        <v>0.69089999999999996</v>
+      </c>
+      <c r="F21" s="36">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="G21" s="36">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="H21" s="36">
+        <v>0.73909999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="17"/>
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="36">
+        <v>0.7208</v>
+      </c>
+      <c r="D22" s="36">
+        <v>0.6976</v>
+      </c>
+      <c r="E22" s="36">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="F22" s="36">
+        <v>0.69950000000000001</v>
+      </c>
+      <c r="G22" s="36">
+        <v>0.76770000000000005</v>
+      </c>
+      <c r="H22" s="36">
+        <v>0.75329999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="17"/>
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="36">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="D23" s="36">
+        <v>0.71140000000000003</v>
+      </c>
+      <c r="E23" s="36">
+        <v>0.71619999999999995</v>
+      </c>
+      <c r="F23" s="36">
+        <v>0.71350000000000002</v>
+      </c>
+      <c r="G23" s="36">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="H23" s="36">
+        <v>0.77280000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="17"/>
+      <c r="B24" s="1">
+        <v>9</v>
+      </c>
+      <c r="C24" s="36">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="D24" s="36">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="E24" s="36">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="F24" s="36">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="G24" s="36">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="H24" s="36">
+        <v>0.78339999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
+      <c r="B25" s="1">
+        <v>11</v>
+      </c>
+      <c r="C25" s="36">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="D25" s="36">
+        <v>0.70240000000000002</v>
+      </c>
+      <c r="E25" s="36">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="F25" s="36">
+        <v>0.7006</v>
+      </c>
+      <c r="G25" s="36">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="H25" s="36">
+        <v>0.78739999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FINAL/Classification Report Semua Nilai K.xlsx
+++ b/FINAL/Classification Report Semua Nilai K.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\K-NN\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA79E48-ADC9-4DCE-B11E-7118F104D53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CA7614-C71C-4977-BBDC-BB7D079AD97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="2" xr2:uid="{6725F3A3-4E43-48F4-B785-D68102C2B30C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="8" xr2:uid="{6725F3A3-4E43-48F4-B785-D68102C2B30C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet7" sheetId="9" r:id="rId8"/>
     <sheet name="Sheet8" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="97">
   <si>
     <t>Metode Normalisasi</t>
   </si>
@@ -303,6 +304,36 @@
   </si>
   <si>
     <t>Z-Score Scaling vs Tanpa Normalisasi</t>
+  </si>
+  <si>
+    <t>Deskripsi</t>
+  </si>
+  <si>
+    <t>Jumlah kehamilan yang pernah dialami oleh pasien.</t>
+  </si>
+  <si>
+    <t>Konsentrasi glukosa plasma dalam darah pasien.</t>
+  </si>
+  <si>
+    <t>Tekanan darah diastolik yaitu tekanan darah saat relaksasi jantung.</t>
+  </si>
+  <si>
+    <t>Ketebalan lipatan kulit trisep yang diukur di lengan atas.</t>
+  </si>
+  <si>
+    <t>Kadar insulin yang terdapat dalam darah pasien.</t>
+  </si>
+  <si>
+    <t>Indeks massa tubuh yang menunjukkan perbandingan berat badan pasien relatif terhadap tinggi badan.</t>
+  </si>
+  <si>
+    <t>Usia pasien.</t>
+  </si>
+  <si>
+    <t>Variabel target yang menunjukkan apakah pasien didiagnosis mengidap diabetes (1) atau tidak (0).</t>
+  </si>
+  <si>
+    <t>Riwayat penyakit diabetes dalam keluarga sebagai indikator hubungan keturunan pasien terkait diabetes.</t>
   </si>
 </sst>
 </file>
@@ -334,7 +365,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,6 +591,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -591,35 +667,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,7 +999,7 @@
   <dimension ref="B2:V27"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -964,50 +1025,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="15" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="1">
         <v>0</v>
       </c>
@@ -1044,8 +1105,8 @@
       <c r="P3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="15"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="30"/>
       <c r="S3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1060,7 +1121,7 @@
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2">
@@ -1125,7 +1186,7 @@
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B5" s="14"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="4">
         <v>3</v>
       </c>
@@ -1188,7 +1249,7 @@
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B6" s="14"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="4">
         <v>5</v>
       </c>
@@ -1251,7 +1312,7 @@
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B7" s="14"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="4">
         <v>7</v>
       </c>
@@ -1314,7 +1375,7 @@
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B8" s="14"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="4">
         <v>9</v>
       </c>
@@ -1377,7 +1438,7 @@
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B9" s="14"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="4">
         <v>11</v>
       </c>
@@ -1440,7 +1501,7 @@
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2">
@@ -1505,7 +1566,7 @@
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B11" s="14"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="4">
         <v>3</v>
       </c>
@@ -1568,7 +1629,7 @@
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B12" s="14"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="4">
         <v>5</v>
       </c>
@@ -1631,7 +1692,7 @@
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B13" s="14"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="4">
         <v>7</v>
       </c>
@@ -1694,7 +1755,7 @@
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B14" s="14"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="4">
         <v>9</v>
       </c>
@@ -1757,7 +1818,7 @@
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B15" s="14"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="4">
         <v>11</v>
       </c>
@@ -1820,7 +1881,7 @@
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="29" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2">
@@ -1885,7 +1946,7 @@
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B17" s="14"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="4">
         <v>3</v>
       </c>
@@ -1948,7 +2009,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B18" s="14"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="4">
         <v>5</v>
       </c>
@@ -2011,7 +2072,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B19" s="14"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="4">
         <v>7</v>
       </c>
@@ -2074,7 +2135,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B20" s="14"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="4">
         <v>9</v>
       </c>
@@ -2137,7 +2198,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B21" s="14"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="4">
         <v>11</v>
       </c>
@@ -2200,7 +2261,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2">
@@ -2265,7 +2326,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B23" s="14"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="4">
         <v>3</v>
       </c>
@@ -2328,7 +2389,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B24" s="14"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="4">
         <v>5</v>
       </c>
@@ -2391,7 +2452,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B25" s="14"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="4">
         <v>7</v>
       </c>
@@ -2454,7 +2515,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B26" s="14"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="4">
         <v>9</v>
       </c>
@@ -2517,7 +2578,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="5">
         <v>11</v>
       </c>
@@ -2595,6 +2656,106 @@
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E822EE-C2A8-4515-9FAD-FB9DE6DAB4A0}">
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2641,13 +2802,13 @@
       <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2659,64 +2820,64 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="15" t="s">
+      <c r="K2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="15" t="s">
+      <c r="O2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="15" t="s">
+      <c r="S2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="15" t="s">
+      <c r="W2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AA2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AE2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AG2" s="30" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2724,40 +2885,40 @@
       <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="23" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
     </row>
     <row r="4" spans="1:33" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="35" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2">
@@ -2781,7 +2942,7 @@
       <c r="I4" s="8">
         <v>0.70299999999999996</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="35" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="2">
@@ -2790,7 +2951,7 @@
       <c r="M4" s="8">
         <v>0.72729999999999995</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="35" t="s">
         <v>15</v>
       </c>
       <c r="P4" s="2">
@@ -2799,7 +2960,7 @@
       <c r="Q4" s="8">
         <v>0.70299999999999996</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="35" t="s">
         <v>15</v>
       </c>
       <c r="T4" s="2">
@@ -2808,7 +2969,7 @@
       <c r="U4" s="8">
         <v>0.70299999999999996</v>
       </c>
-      <c r="W4" s="20" t="s">
+      <c r="W4" s="35" t="s">
         <v>15</v>
       </c>
       <c r="X4" s="2">
@@ -2817,7 +2978,7 @@
       <c r="Y4" s="8">
         <v>0.70299999999999996</v>
       </c>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="35" t="s">
         <v>15</v>
       </c>
       <c r="AB4" s="2">
@@ -2826,7 +2987,7 @@
       <c r="AC4" s="8">
         <v>0.78790000000000004</v>
       </c>
-      <c r="AE4" s="20" t="s">
+      <c r="AE4" s="35" t="s">
         <v>15</v>
       </c>
       <c r="AF4" s="2">
@@ -2840,7 +3001,7 @@
       <c r="A5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="4">
         <v>3</v>
       </c>
@@ -2862,42 +3023,42 @@
       <c r="I5" s="9">
         <v>0.75870000000000004</v>
       </c>
-      <c r="K5" s="21"/>
+      <c r="K5" s="36"/>
       <c r="L5" s="4">
         <v>3</v>
       </c>
       <c r="M5" s="9">
         <v>0.74029999999999996</v>
       </c>
-      <c r="O5" s="21"/>
+      <c r="O5" s="36"/>
       <c r="P5" s="4">
         <v>3</v>
       </c>
       <c r="Q5" s="9">
         <v>0.71789999999999998</v>
       </c>
-      <c r="S5" s="21"/>
+      <c r="S5" s="36"/>
       <c r="T5" s="4">
         <v>3</v>
       </c>
       <c r="U5" s="9">
         <v>0.72119999999999995</v>
       </c>
-      <c r="W5" s="21"/>
+      <c r="W5" s="36"/>
       <c r="X5" s="4">
         <v>3</v>
       </c>
       <c r="Y5" s="9">
         <v>0.71940000000000004</v>
       </c>
-      <c r="AA5" s="21"/>
+      <c r="AA5" s="36"/>
       <c r="AB5" s="4">
         <v>3</v>
       </c>
       <c r="AC5" s="9">
         <v>0.78790000000000004</v>
       </c>
-      <c r="AE5" s="21"/>
+      <c r="AE5" s="36"/>
       <c r="AF5" s="4">
         <v>3</v>
       </c>
@@ -2909,7 +3070,7 @@
       <c r="A6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="4">
         <v>5</v>
       </c>
@@ -2931,42 +3092,42 @@
       <c r="I6" s="9">
         <v>0.77190000000000003</v>
       </c>
-      <c r="K6" s="21"/>
+      <c r="K6" s="36"/>
       <c r="L6" s="4">
         <v>5</v>
       </c>
       <c r="M6" s="9">
         <v>0.74029999999999996</v>
       </c>
-      <c r="O6" s="21"/>
+      <c r="O6" s="36"/>
       <c r="P6" s="4">
         <v>5</v>
       </c>
       <c r="Q6" s="9">
         <v>0.71879999999999999</v>
       </c>
-      <c r="S6" s="21"/>
+      <c r="S6" s="36"/>
       <c r="T6" s="4">
         <v>5</v>
       </c>
       <c r="U6" s="9">
         <v>0.72529999999999994</v>
       </c>
-      <c r="W6" s="21"/>
+      <c r="W6" s="36"/>
       <c r="X6" s="4">
         <v>5</v>
       </c>
       <c r="Y6" s="9">
         <v>0.72150000000000003</v>
       </c>
-      <c r="AA6" s="21"/>
+      <c r="AA6" s="36"/>
       <c r="AB6" s="4">
         <v>5</v>
       </c>
       <c r="AC6" s="9">
         <v>0.77780000000000005</v>
       </c>
-      <c r="AE6" s="21"/>
+      <c r="AE6" s="36"/>
       <c r="AF6" s="4">
         <v>5</v>
       </c>
@@ -2978,7 +3139,7 @@
       <c r="A7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="4">
         <v>7</v>
       </c>
@@ -3000,42 +3161,42 @@
       <c r="I7" s="9">
         <v>0.77070000000000005</v>
       </c>
-      <c r="K7" s="21"/>
+      <c r="K7" s="36"/>
       <c r="L7" s="4">
         <v>7</v>
       </c>
       <c r="M7" s="9">
         <v>0.72729999999999995</v>
       </c>
-      <c r="O7" s="21"/>
+      <c r="O7" s="36"/>
       <c r="P7" s="4">
         <v>7</v>
       </c>
       <c r="Q7" s="9">
         <v>0.70650000000000002</v>
       </c>
-      <c r="S7" s="21"/>
+      <c r="S7" s="36"/>
       <c r="T7" s="4">
         <v>7</v>
       </c>
       <c r="U7" s="9">
         <v>0.71519999999999995</v>
       </c>
-      <c r="W7" s="21"/>
+      <c r="W7" s="36"/>
       <c r="X7" s="4">
         <v>7</v>
       </c>
       <c r="Y7" s="9">
         <v>0.70960000000000001</v>
       </c>
-      <c r="AA7" s="21"/>
+      <c r="AA7" s="36"/>
       <c r="AB7" s="4">
         <v>7</v>
       </c>
       <c r="AC7" s="9">
         <v>0.75760000000000005</v>
       </c>
-      <c r="AE7" s="21"/>
+      <c r="AE7" s="36"/>
       <c r="AF7" s="4">
         <v>7</v>
       </c>
@@ -3047,7 +3208,7 @@
       <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="4">
         <v>9</v>
       </c>
@@ -3069,42 +3230,42 @@
       <c r="I8" s="9">
         <v>0.77510000000000001</v>
       </c>
-      <c r="K8" s="21"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="4">
         <v>9</v>
       </c>
       <c r="M8" s="9">
         <v>0.75319999999999998</v>
       </c>
-      <c r="O8" s="21"/>
+      <c r="O8" s="36"/>
       <c r="P8" s="4">
         <v>9</v>
       </c>
       <c r="Q8" s="9">
         <v>0.73180000000000001</v>
       </c>
-      <c r="S8" s="21"/>
+      <c r="S8" s="36"/>
       <c r="T8" s="4">
         <v>9</v>
       </c>
       <c r="U8" s="9">
         <v>0.73540000000000005</v>
       </c>
-      <c r="W8" s="21"/>
+      <c r="W8" s="36"/>
       <c r="X8" s="4">
         <v>9</v>
       </c>
       <c r="Y8" s="9">
         <v>0.73340000000000005</v>
       </c>
-      <c r="AA8" s="21"/>
+      <c r="AA8" s="36"/>
       <c r="AB8" s="4">
         <v>9</v>
       </c>
       <c r="AC8" s="9">
         <v>0.79800000000000004</v>
       </c>
-      <c r="AE8" s="21"/>
+      <c r="AE8" s="36"/>
       <c r="AF8" s="4">
         <v>9</v>
       </c>
@@ -3116,7 +3277,7 @@
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="4">
         <v>11</v>
       </c>
@@ -3138,42 +3299,42 @@
       <c r="I9" s="10">
         <v>0.7802</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="37"/>
       <c r="L9" s="4">
         <v>11</v>
       </c>
       <c r="M9" s="10">
         <v>0.75970000000000004</v>
       </c>
-      <c r="O9" s="22"/>
+      <c r="O9" s="37"/>
       <c r="P9" s="4">
         <v>11</v>
       </c>
       <c r="Q9" s="10">
         <v>0.73899999999999999</v>
       </c>
-      <c r="S9" s="22"/>
+      <c r="S9" s="37"/>
       <c r="T9" s="4">
         <v>11</v>
       </c>
       <c r="U9" s="10">
         <v>0.74439999999999995</v>
       </c>
-      <c r="W9" s="22"/>
+      <c r="W9" s="37"/>
       <c r="X9" s="4">
         <v>11</v>
       </c>
       <c r="Y9" s="10">
         <v>0.74139999999999995</v>
       </c>
-      <c r="AA9" s="22"/>
+      <c r="AA9" s="37"/>
       <c r="AB9" s="4">
         <v>11</v>
       </c>
       <c r="AC9" s="10">
         <v>0.79800000000000004</v>
       </c>
-      <c r="AE9" s="22"/>
+      <c r="AE9" s="37"/>
       <c r="AF9" s="4">
         <v>11</v>
       </c>
@@ -3185,7 +3346,7 @@
       <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2">
@@ -3209,7 +3370,7 @@
       <c r="I10" s="8">
         <v>0.72119999999999995</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="35" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="2">
@@ -3218,7 +3379,7 @@
       <c r="M10" s="8">
         <v>0.74029999999999996</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="O10" s="35" t="s">
         <v>16</v>
       </c>
       <c r="P10" s="2">
@@ -3227,7 +3388,7 @@
       <c r="Q10" s="8">
         <v>0.71789999999999998</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="35" t="s">
         <v>16</v>
       </c>
       <c r="T10" s="2">
@@ -3236,7 +3397,7 @@
       <c r="U10" s="8">
         <v>0.72119999999999995</v>
       </c>
-      <c r="W10" s="20" t="s">
+      <c r="W10" s="35" t="s">
         <v>16</v>
       </c>
       <c r="X10" s="2">
@@ -3245,7 +3406,7 @@
       <c r="Y10" s="8">
         <v>0.71940000000000004</v>
       </c>
-      <c r="AA10" s="20" t="s">
+      <c r="AA10" s="35" t="s">
         <v>16</v>
       </c>
       <c r="AB10" s="2">
@@ -3254,7 +3415,7 @@
       <c r="AC10" s="8">
         <v>0.78790000000000004</v>
       </c>
-      <c r="AE10" s="20" t="s">
+      <c r="AE10" s="35" t="s">
         <v>16</v>
       </c>
       <c r="AF10" s="2">
@@ -3268,7 +3429,7 @@
       <c r="A11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="4">
         <v>3</v>
       </c>
@@ -3290,42 +3451,42 @@
       <c r="I11" s="9">
         <v>0.78439999999999999</v>
       </c>
-      <c r="K11" s="21"/>
+      <c r="K11" s="36"/>
       <c r="L11" s="4">
         <v>3</v>
       </c>
       <c r="M11" s="9">
         <v>0.7792</v>
       </c>
-      <c r="O11" s="21"/>
+      <c r="O11" s="36"/>
       <c r="P11" s="4">
         <v>3</v>
       </c>
       <c r="Q11" s="9">
         <v>0.75960000000000005</v>
       </c>
-      <c r="S11" s="21"/>
+      <c r="S11" s="36"/>
       <c r="T11" s="4">
         <v>3</v>
       </c>
       <c r="U11" s="9">
         <v>0.76359999999999995</v>
       </c>
-      <c r="W11" s="21"/>
+      <c r="W11" s="36"/>
       <c r="X11" s="4">
         <v>3</v>
       </c>
       <c r="Y11" s="9">
         <v>0.76149999999999995</v>
       </c>
-      <c r="AA11" s="21"/>
+      <c r="AA11" s="36"/>
       <c r="AB11" s="4">
         <v>3</v>
       </c>
       <c r="AC11" s="9">
         <v>0.81820000000000004</v>
       </c>
-      <c r="AE11" s="21"/>
+      <c r="AE11" s="36"/>
       <c r="AF11" s="4">
         <v>3</v>
       </c>
@@ -3337,7 +3498,7 @@
       <c r="A12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="4">
         <v>5</v>
       </c>
@@ -3359,42 +3520,42 @@
       <c r="I12" s="9">
         <v>0.79100000000000004</v>
       </c>
-      <c r="K12" s="21"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="4">
         <v>5</v>
       </c>
       <c r="M12" s="9">
         <v>0.78569999999999995</v>
       </c>
-      <c r="O12" s="21"/>
+      <c r="O12" s="36"/>
       <c r="P12" s="4">
         <v>5</v>
       </c>
       <c r="Q12" s="9">
         <v>0.76659999999999995</v>
       </c>
-      <c r="S12" s="21"/>
+      <c r="S12" s="36"/>
       <c r="T12" s="4">
         <v>5</v>
       </c>
       <c r="U12" s="9">
         <v>0.76870000000000005</v>
       </c>
-      <c r="W12" s="21"/>
+      <c r="W12" s="36"/>
       <c r="X12" s="4">
         <v>5</v>
       </c>
       <c r="Y12" s="9">
         <v>0.76759999999999995</v>
       </c>
-      <c r="AA12" s="21"/>
+      <c r="AA12" s="36"/>
       <c r="AB12" s="4">
         <v>5</v>
       </c>
       <c r="AC12" s="9">
         <v>0.82830000000000004</v>
       </c>
-      <c r="AE12" s="21"/>
+      <c r="AE12" s="36"/>
       <c r="AF12" s="4">
         <v>5</v>
       </c>
@@ -3406,7 +3567,7 @@
       <c r="A13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="4">
         <v>7</v>
       </c>
@@ -3428,42 +3589,42 @@
       <c r="I13" s="9">
         <v>0.79500000000000004</v>
       </c>
-      <c r="K13" s="21"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="4">
         <v>7</v>
       </c>
       <c r="M13" s="9">
         <v>0.81169999999999998</v>
       </c>
-      <c r="O13" s="21"/>
+      <c r="O13" s="36"/>
       <c r="P13" s="4">
         <v>7</v>
       </c>
       <c r="Q13" s="9">
         <v>0.79459999999999997</v>
       </c>
-      <c r="S13" s="21"/>
+      <c r="S13" s="36"/>
       <c r="T13" s="4">
         <v>7</v>
       </c>
       <c r="U13" s="9">
         <v>0.79700000000000004</v>
       </c>
-      <c r="W13" s="21"/>
+      <c r="W13" s="36"/>
       <c r="X13" s="4">
         <v>7</v>
       </c>
       <c r="Y13" s="9">
         <v>0.79579999999999995</v>
       </c>
-      <c r="AA13" s="21"/>
+      <c r="AA13" s="36"/>
       <c r="AB13" s="4">
         <v>7</v>
       </c>
       <c r="AC13" s="9">
         <v>0.84850000000000003</v>
       </c>
-      <c r="AE13" s="21"/>
+      <c r="AE13" s="36"/>
       <c r="AF13" s="4">
         <v>7</v>
       </c>
@@ -3475,7 +3636,7 @@
       <c r="A14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="4">
         <v>9</v>
       </c>
@@ -3497,42 +3658,42 @@
       <c r="I14" s="9">
         <v>0.80369999999999997</v>
       </c>
-      <c r="K14" s="21"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="4">
         <v>9</v>
       </c>
       <c r="M14" s="9">
         <v>0.79869999999999997</v>
       </c>
-      <c r="O14" s="21"/>
+      <c r="O14" s="36"/>
       <c r="P14" s="4">
         <v>9</v>
       </c>
       <c r="Q14" s="9">
         <v>0.78110000000000002</v>
       </c>
-      <c r="S14" s="21"/>
+      <c r="S14" s="36"/>
       <c r="T14" s="4">
         <v>9</v>
       </c>
       <c r="U14" s="9">
         <v>0.77880000000000005</v>
       </c>
-      <c r="W14" s="21"/>
+      <c r="W14" s="36"/>
       <c r="X14" s="4">
         <v>9</v>
       </c>
       <c r="Y14" s="9">
         <v>0.77990000000000004</v>
       </c>
-      <c r="AA14" s="21"/>
+      <c r="AA14" s="36"/>
       <c r="AB14" s="4">
         <v>9</v>
       </c>
       <c r="AC14" s="9">
         <v>0.84850000000000003</v>
       </c>
-      <c r="AE14" s="21"/>
+      <c r="AE14" s="36"/>
       <c r="AF14" s="4">
         <v>9</v>
       </c>
@@ -3544,7 +3705,7 @@
       <c r="A15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="4">
         <v>11</v>
       </c>
@@ -3566,42 +3727,42 @@
       <c r="I15" s="10">
         <v>0.80500000000000005</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="4">
         <v>11</v>
       </c>
       <c r="M15" s="10">
         <v>0.7792</v>
       </c>
-      <c r="O15" s="22"/>
+      <c r="O15" s="37"/>
       <c r="P15" s="4">
         <v>11</v>
       </c>
       <c r="Q15" s="10">
         <v>0.75990000000000002</v>
       </c>
-      <c r="S15" s="22"/>
+      <c r="S15" s="37"/>
       <c r="T15" s="4">
         <v>11</v>
       </c>
       <c r="U15" s="10">
         <v>0.75560000000000005</v>
       </c>
-      <c r="W15" s="22"/>
+      <c r="W15" s="37"/>
       <c r="X15" s="4">
         <v>11</v>
       </c>
       <c r="Y15" s="10">
         <v>0.75760000000000005</v>
       </c>
-      <c r="AA15" s="22"/>
+      <c r="AA15" s="37"/>
       <c r="AB15" s="4">
         <v>11</v>
       </c>
       <c r="AC15" s="10">
         <v>0.83840000000000003</v>
       </c>
-      <c r="AE15" s="22"/>
+      <c r="AE15" s="37"/>
       <c r="AF15" s="4">
         <v>11</v>
       </c>
@@ -3613,7 +3774,7 @@
       <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2">
@@ -3637,7 +3798,7 @@
       <c r="I16" s="8">
         <v>0.71719999999999995</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="35" t="s">
         <v>17</v>
       </c>
       <c r="L16" s="2">
@@ -3646,7 +3807,7 @@
       <c r="M16" s="8">
         <v>0.74029999999999996</v>
       </c>
-      <c r="O16" s="20" t="s">
+      <c r="O16" s="35" t="s">
         <v>17</v>
       </c>
       <c r="P16" s="2">
@@ -3655,7 +3816,7 @@
       <c r="Q16" s="8">
         <v>0.71719999999999995</v>
       </c>
-      <c r="S16" s="20" t="s">
+      <c r="S16" s="35" t="s">
         <v>17</v>
       </c>
       <c r="T16" s="2">
@@ -3664,7 +3825,7 @@
       <c r="U16" s="8">
         <v>0.71719999999999995</v>
       </c>
-      <c r="W16" s="20" t="s">
+      <c r="W16" s="35" t="s">
         <v>17</v>
       </c>
       <c r="X16" s="2">
@@ -3673,7 +3834,7 @@
       <c r="Y16" s="8">
         <v>0.71719999999999995</v>
       </c>
-      <c r="AA16" s="20" t="s">
+      <c r="AA16" s="35" t="s">
         <v>17</v>
       </c>
       <c r="AB16" s="2">
@@ -3682,7 +3843,7 @@
       <c r="AC16" s="8">
         <v>0.79800000000000004</v>
       </c>
-      <c r="AE16" s="20" t="s">
+      <c r="AE16" s="35" t="s">
         <v>17</v>
       </c>
       <c r="AF16" s="2">
@@ -3696,7 +3857,7 @@
       <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="4">
         <v>3</v>
       </c>
@@ -3718,42 +3879,42 @@
       <c r="I17" s="9">
         <v>0.75529999999999997</v>
       </c>
-      <c r="K17" s="21"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="4">
         <v>3</v>
       </c>
       <c r="M17" s="9">
         <v>0.74029999999999996</v>
       </c>
-      <c r="O17" s="21"/>
+      <c r="O17" s="36"/>
       <c r="P17" s="4">
         <v>3</v>
       </c>
       <c r="Q17" s="9">
         <v>0.71879999999999999</v>
       </c>
-      <c r="S17" s="21"/>
+      <c r="S17" s="36"/>
       <c r="T17" s="4">
         <v>3</v>
       </c>
       <c r="U17" s="9">
         <v>0.72529999999999994</v>
       </c>
-      <c r="W17" s="21"/>
+      <c r="W17" s="36"/>
       <c r="X17" s="4">
         <v>3</v>
       </c>
       <c r="Y17" s="9">
         <v>0.72150000000000003</v>
       </c>
-      <c r="AA17" s="21"/>
+      <c r="AA17" s="36"/>
       <c r="AB17" s="4">
         <v>3</v>
       </c>
       <c r="AC17" s="9">
         <v>0.77780000000000005</v>
       </c>
-      <c r="AE17" s="21"/>
+      <c r="AE17" s="36"/>
       <c r="AF17" s="4">
         <v>3</v>
       </c>
@@ -3765,7 +3926,7 @@
       <c r="A18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="4">
         <v>5</v>
       </c>
@@ -3787,42 +3948,42 @@
       <c r="I18" s="9">
         <v>0.76970000000000005</v>
       </c>
-      <c r="K18" s="21"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="4">
         <v>5</v>
       </c>
       <c r="M18" s="9">
         <v>0.74680000000000002</v>
       </c>
-      <c r="O18" s="21"/>
+      <c r="O18" s="36"/>
       <c r="P18" s="4">
         <v>5</v>
       </c>
       <c r="Q18" s="9">
         <v>0.72519999999999996</v>
       </c>
-      <c r="S18" s="21"/>
+      <c r="S18" s="36"/>
       <c r="T18" s="4">
         <v>5</v>
       </c>
       <c r="U18" s="9">
         <v>0.73029999999999995</v>
       </c>
-      <c r="W18" s="21"/>
+      <c r="W18" s="36"/>
       <c r="X18" s="4">
         <v>5</v>
       </c>
       <c r="Y18" s="9">
         <v>0.72740000000000005</v>
       </c>
-      <c r="AA18" s="21"/>
+      <c r="AA18" s="36"/>
       <c r="AB18" s="4">
         <v>5</v>
       </c>
       <c r="AC18" s="9">
         <v>0.78790000000000004</v>
       </c>
-      <c r="AE18" s="21"/>
+      <c r="AE18" s="36"/>
       <c r="AF18" s="4">
         <v>5</v>
       </c>
@@ -3834,7 +3995,7 @@
       <c r="A19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="4">
         <v>7</v>
       </c>
@@ -3856,42 +4017,42 @@
       <c r="I19" s="9">
         <v>0.79690000000000005</v>
       </c>
-      <c r="K19" s="21"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="4">
         <v>7</v>
       </c>
       <c r="M19" s="9">
         <v>0.79220000000000002</v>
       </c>
-      <c r="O19" s="21"/>
+      <c r="O19" s="36"/>
       <c r="P19" s="4">
         <v>7</v>
       </c>
       <c r="Q19" s="9">
         <v>0.77370000000000005</v>
       </c>
-      <c r="S19" s="21"/>
+      <c r="S19" s="36"/>
       <c r="T19" s="4">
         <v>7</v>
       </c>
       <c r="U19" s="9">
         <v>0.77370000000000005</v>
       </c>
-      <c r="W19" s="21"/>
+      <c r="W19" s="36"/>
       <c r="X19" s="4">
         <v>7</v>
       </c>
       <c r="Y19" s="9">
         <v>0.77370000000000005</v>
       </c>
-      <c r="AA19" s="21"/>
+      <c r="AA19" s="36"/>
       <c r="AB19" s="4">
         <v>7</v>
       </c>
       <c r="AC19" s="9">
         <v>0.83840000000000003</v>
       </c>
-      <c r="AE19" s="21"/>
+      <c r="AE19" s="36"/>
       <c r="AF19" s="4">
         <v>7</v>
       </c>
@@ -3903,7 +4064,7 @@
       <c r="A20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="4">
         <v>9</v>
       </c>
@@ -3925,42 +4086,42 @@
       <c r="I20" s="9">
         <v>0.80600000000000005</v>
       </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="4">
         <v>9</v>
       </c>
       <c r="M20" s="9">
         <v>0.7792</v>
       </c>
-      <c r="O20" s="21"/>
+      <c r="O20" s="36"/>
       <c r="P20" s="4">
         <v>9</v>
       </c>
       <c r="Q20" s="9">
         <v>0.75990000000000002</v>
       </c>
-      <c r="S20" s="21"/>
+      <c r="S20" s="36"/>
       <c r="T20" s="4">
         <v>9</v>
       </c>
       <c r="U20" s="9">
         <v>0.75560000000000005</v>
       </c>
-      <c r="W20" s="21"/>
+      <c r="W20" s="36"/>
       <c r="X20" s="4">
         <v>9</v>
       </c>
       <c r="Y20" s="9">
         <v>0.75760000000000005</v>
       </c>
-      <c r="AA20" s="21"/>
+      <c r="AA20" s="36"/>
       <c r="AB20" s="4">
         <v>9</v>
       </c>
       <c r="AC20" s="9">
         <v>0.83840000000000003</v>
       </c>
-      <c r="AE20" s="21"/>
+      <c r="AE20" s="36"/>
       <c r="AF20" s="4">
         <v>9</v>
       </c>
@@ -3972,7 +4133,7 @@
       <c r="A21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="4">
         <v>11</v>
       </c>
@@ -3994,42 +4155,42 @@
       <c r="I21" s="10">
         <v>0.81289999999999996</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="37"/>
       <c r="L21" s="4">
         <v>11</v>
       </c>
       <c r="M21" s="10">
         <v>0.77270000000000005</v>
       </c>
-      <c r="O21" s="22"/>
+      <c r="O21" s="37"/>
       <c r="P21" s="4">
         <v>11</v>
       </c>
       <c r="Q21" s="10">
         <v>0.75290000000000001</v>
       </c>
-      <c r="S21" s="22"/>
+      <c r="S21" s="37"/>
       <c r="T21" s="4">
         <v>11</v>
       </c>
       <c r="U21" s="10">
         <v>0.75860000000000005</v>
       </c>
-      <c r="W21" s="22"/>
+      <c r="W21" s="37"/>
       <c r="X21" s="4">
         <v>11</v>
       </c>
       <c r="Y21" s="10">
         <v>0.75539999999999996</v>
       </c>
-      <c r="AA21" s="22"/>
+      <c r="AA21" s="37"/>
       <c r="AB21" s="4">
         <v>11</v>
       </c>
       <c r="AC21" s="10">
         <v>0.80810000000000004</v>
       </c>
-      <c r="AE21" s="22"/>
+      <c r="AE21" s="37"/>
       <c r="AF21" s="4">
         <v>11</v>
       </c>
@@ -4041,7 +4202,7 @@
       <c r="A22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2">
@@ -4065,7 +4226,7 @@
       <c r="I22" s="8">
         <v>0.69799999999999995</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="35" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="2">
@@ -4074,7 +4235,7 @@
       <c r="M22" s="8">
         <v>0.7208</v>
       </c>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="35" t="s">
         <v>18</v>
       </c>
       <c r="P22" s="2">
@@ -4083,7 +4244,7 @@
       <c r="Q22" s="8">
         <v>0.69640000000000002</v>
       </c>
-      <c r="S22" s="20" t="s">
+      <c r="S22" s="35" t="s">
         <v>18</v>
       </c>
       <c r="T22" s="2">
@@ -4092,7 +4253,7 @@
       <c r="U22" s="8">
         <v>0.69799999999999995</v>
       </c>
-      <c r="W22" s="20" t="s">
+      <c r="W22" s="35" t="s">
         <v>18</v>
       </c>
       <c r="X22" s="2">
@@ -4101,7 +4262,7 @@
       <c r="Y22" s="8">
         <v>0.69720000000000004</v>
       </c>
-      <c r="AA22" s="20" t="s">
+      <c r="AA22" s="35" t="s">
         <v>18</v>
       </c>
       <c r="AB22" s="2">
@@ -4110,7 +4271,7 @@
       <c r="AC22" s="8">
         <v>0.77780000000000005</v>
       </c>
-      <c r="AE22" s="20" t="s">
+      <c r="AE22" s="35" t="s">
         <v>18</v>
       </c>
       <c r="AF22" s="2">
@@ -4124,7 +4285,7 @@
       <c r="A23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="4">
         <v>3</v>
       </c>
@@ -4146,42 +4307,42 @@
       <c r="I23" s="9">
         <v>0.73909999999999998</v>
       </c>
-      <c r="K23" s="21"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="4">
         <v>3</v>
       </c>
       <c r="M23" s="9">
         <v>0.70130000000000003</v>
       </c>
-      <c r="O23" s="21"/>
+      <c r="O23" s="36"/>
       <c r="P23" s="4">
         <v>3</v>
       </c>
       <c r="Q23" s="9">
         <v>0.68130000000000002</v>
       </c>
-      <c r="S23" s="21"/>
+      <c r="S23" s="36"/>
       <c r="T23" s="4">
         <v>3</v>
       </c>
       <c r="U23" s="9">
         <v>0.69089999999999996</v>
       </c>
-      <c r="W23" s="21"/>
+      <c r="W23" s="36"/>
       <c r="X23" s="4">
         <v>3</v>
       </c>
       <c r="Y23" s="9">
         <v>0.68400000000000005</v>
       </c>
-      <c r="AA23" s="21"/>
+      <c r="AA23" s="36"/>
       <c r="AB23" s="4">
         <v>3</v>
       </c>
       <c r="AC23" s="9">
         <v>0.72729999999999995</v>
       </c>
-      <c r="AE23" s="21"/>
+      <c r="AE23" s="36"/>
       <c r="AF23" s="4">
         <v>3</v>
       </c>
@@ -4193,7 +4354,7 @@
       <c r="A24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="4">
         <v>5</v>
       </c>
@@ -4215,42 +4376,42 @@
       <c r="I24" s="9">
         <v>0.75329999999999997</v>
       </c>
-      <c r="K24" s="21"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="4">
         <v>5</v>
       </c>
       <c r="M24" s="9">
         <v>0.7208</v>
       </c>
-      <c r="O24" s="21"/>
+      <c r="O24" s="36"/>
       <c r="P24" s="4">
         <v>5</v>
       </c>
       <c r="Q24" s="9">
         <v>0.6976</v>
       </c>
-      <c r="S24" s="21"/>
+      <c r="S24" s="36"/>
       <c r="T24" s="4">
         <v>5</v>
       </c>
       <c r="U24" s="9">
         <v>0.70199999999999996</v>
       </c>
-      <c r="W24" s="21"/>
+      <c r="W24" s="36"/>
       <c r="X24" s="4">
         <v>5</v>
       </c>
       <c r="Y24" s="9">
         <v>0.69950000000000001</v>
       </c>
-      <c r="AA24" s="21"/>
+      <c r="AA24" s="36"/>
       <c r="AB24" s="4">
         <v>5</v>
       </c>
       <c r="AC24" s="9">
         <v>0.76770000000000005</v>
       </c>
-      <c r="AE24" s="21"/>
+      <c r="AE24" s="36"/>
       <c r="AF24" s="4">
         <v>5</v>
       </c>
@@ -4262,7 +4423,7 @@
       <c r="A25" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="4">
         <v>7</v>
       </c>
@@ -4284,42 +4445,42 @@
       <c r="I25" s="9">
         <v>0.77280000000000004</v>
       </c>
-      <c r="K25" s="21"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="4">
         <v>7</v>
       </c>
       <c r="M25" s="9">
         <v>0.73380000000000001</v>
       </c>
-      <c r="O25" s="21"/>
+      <c r="O25" s="36"/>
       <c r="P25" s="4">
         <v>7</v>
       </c>
       <c r="Q25" s="9">
         <v>0.71140000000000003</v>
       </c>
-      <c r="S25" s="21"/>
+      <c r="S25" s="36"/>
       <c r="T25" s="4">
         <v>7</v>
       </c>
       <c r="U25" s="9">
         <v>0.71619999999999995</v>
       </c>
-      <c r="W25" s="21"/>
+      <c r="W25" s="36"/>
       <c r="X25" s="4">
         <v>7</v>
       </c>
       <c r="Y25" s="9">
         <v>0.71350000000000002</v>
       </c>
-      <c r="AA25" s="21"/>
+      <c r="AA25" s="36"/>
       <c r="AB25" s="4">
         <v>7</v>
       </c>
       <c r="AC25" s="9">
         <v>0.77780000000000005</v>
       </c>
-      <c r="AE25" s="21"/>
+      <c r="AE25" s="36"/>
       <c r="AF25" s="4">
         <v>7</v>
       </c>
@@ -4331,7 +4492,7 @@
       <c r="A26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="4">
         <v>9</v>
       </c>
@@ -4353,42 +4514,42 @@
       <c r="I26" s="9">
         <v>0.78339999999999999</v>
       </c>
-      <c r="K26" s="21"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="4">
         <v>9</v>
       </c>
       <c r="M26" s="9">
         <v>0.74029999999999996</v>
       </c>
-      <c r="O26" s="21"/>
+      <c r="O26" s="36"/>
       <c r="P26" s="4">
         <v>9</v>
       </c>
       <c r="Q26" s="9">
         <v>0.71719999999999995</v>
       </c>
-      <c r="S26" s="21"/>
+      <c r="S26" s="36"/>
       <c r="T26" s="4">
         <v>9</v>
       </c>
       <c r="U26" s="9">
         <v>0.71719999999999995</v>
       </c>
-      <c r="W26" s="21"/>
+      <c r="W26" s="36"/>
       <c r="X26" s="4">
         <v>9</v>
       </c>
       <c r="Y26" s="9">
         <v>0.71719999999999995</v>
       </c>
-      <c r="AA26" s="21"/>
+      <c r="AA26" s="36"/>
       <c r="AB26" s="4">
         <v>9</v>
       </c>
       <c r="AC26" s="9">
         <v>0.79800000000000004</v>
       </c>
-      <c r="AE26" s="21"/>
+      <c r="AE26" s="36"/>
       <c r="AF26" s="4">
         <v>9</v>
       </c>
@@ -4400,7 +4561,7 @@
       <c r="A27" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="5">
         <v>11</v>
       </c>
@@ -4422,42 +4583,42 @@
       <c r="I27" s="10">
         <v>0.78739999999999999</v>
       </c>
-      <c r="K27" s="22"/>
+      <c r="K27" s="37"/>
       <c r="L27" s="5">
         <v>11</v>
       </c>
       <c r="M27" s="10">
         <v>0.72729999999999995</v>
       </c>
-      <c r="O27" s="22"/>
+      <c r="O27" s="37"/>
       <c r="P27" s="5">
         <v>11</v>
       </c>
       <c r="Q27" s="10">
         <v>0.70240000000000002</v>
       </c>
-      <c r="S27" s="22"/>
+      <c r="S27" s="37"/>
       <c r="T27" s="5">
         <v>11</v>
       </c>
       <c r="U27" s="10">
         <v>0.69899999999999995</v>
       </c>
-      <c r="W27" s="22"/>
+      <c r="W27" s="37"/>
       <c r="X27" s="5">
         <v>11</v>
       </c>
       <c r="Y27" s="10">
         <v>0.7006</v>
       </c>
-      <c r="AA27" s="22"/>
+      <c r="AA27" s="37"/>
       <c r="AB27" s="5">
         <v>11</v>
       </c>
       <c r="AC27" s="10">
         <v>0.79800000000000004</v>
       </c>
-      <c r="AE27" s="22"/>
+      <c r="AE27" s="37"/>
       <c r="AF27" s="5">
         <v>11</v>
       </c>
@@ -4530,7 +4691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E72B882-CFB5-4FA3-A22E-50448EE5D5B2}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
@@ -4546,20 +4707,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
@@ -4580,7 +4741,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="12">
@@ -4603,7 +4764,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B4" s="12">
@@ -4626,7 +4787,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="12">
@@ -4684,53 +4845,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="33"/>
+      <c r="I2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="33"/>
+      <c r="K2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="17"/>
+      <c r="N2" s="32"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="17"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
@@ -4892,53 +5053,53 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18" t="s">
+      <c r="H9" s="33"/>
+      <c r="I9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="17" t="s">
+      <c r="J9" s="33"/>
+      <c r="K9" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17" t="s">
+      <c r="L9" s="32"/>
+      <c r="M9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="17"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="17"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
@@ -5352,1517 +5513,1517 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="28">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="17">
         <v>0.422110553</v>
       </c>
-      <c r="C3" s="29">
-        <v>0</v>
-      </c>
-      <c r="D3" s="29">
+      <c r="C3" s="17">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
         <v>9.6498718999999997E-2</v>
       </c>
-      <c r="E3" s="29">
-        <v>0</v>
-      </c>
-      <c r="F3" s="29">
-        <v>0</v>
-      </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="E3" s="17">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="28">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="17">
         <v>0.56281407000000006</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="17">
         <v>0.42026825600000001</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="17">
         <v>0.51409052099999997</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="17">
         <v>0.48333333299999998</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="17">
         <v>1</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="28">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="17">
         <v>0.69849246200000004</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="17">
         <v>0.427719821</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="17">
         <v>0.24594363799999999</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="17">
         <v>1.6666667E-2</v>
       </c>
-      <c r="F5" s="29">
-        <v>0</v>
-      </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="F5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="28">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="17">
         <v>0.80904522599999995</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="17">
         <v>0.32637853900000002</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="17">
         <v>7.5149444999999995E-2</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="17">
         <v>0.73333333300000003</v>
       </c>
-      <c r="F6" s="29">
-        <v>0</v>
-      </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="28">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="17">
         <v>0.67336683399999997</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="17">
         <v>0.68852458999999999</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="17">
         <v>6.8317676999999993E-2</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="17">
         <v>0.41666666699999999</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="28">
+      <c r="A9" s="16">
         <v>614</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="17">
         <v>0.62814070399999999</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="17">
         <v>0.33532041699999998</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="17">
         <v>7.8565329000000003E-2</v>
       </c>
-      <c r="E9" s="29">
-        <v>0</v>
-      </c>
-      <c r="F9" s="29">
-        <v>0</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="28">
+      <c r="A13" s="16">
         <v>1</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="17">
         <v>0.49246231200000001</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="17">
         <v>0.506706408</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="17">
         <v>0.15029888999999999</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="17">
         <v>0.366666667</v>
       </c>
-      <c r="F13" s="29">
-        <v>0</v>
-      </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="28">
+      <c r="A14" s="16">
         <v>2</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="17">
         <v>0.56281407000000006</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="17">
         <v>0.53204172900000002</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="17">
         <v>2.9888984E-2</v>
       </c>
-      <c r="E14" s="29">
-        <v>0</v>
-      </c>
-      <c r="F14" s="29">
-        <v>0</v>
-      </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="28">
+      <c r="A15" s="16">
         <v>3</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="17">
         <v>0.54271356800000004</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="17">
         <v>0.45901639300000002</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="17">
         <v>3.4158839000000003E-2</v>
       </c>
-      <c r="E15" s="29">
-        <v>0</v>
-      </c>
-      <c r="F15" s="29">
-        <v>0</v>
-      </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="28">
+      <c r="A16" s="16">
         <v>4</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="17">
         <v>0.53768844199999999</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="17">
         <v>0.36661698999999998</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="17">
         <v>0.33219470499999998</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="17">
         <v>0.21666666700000001</v>
       </c>
-      <c r="F16" s="29">
-        <v>0</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="28">
+      <c r="A17" s="16">
         <v>5</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="17">
         <v>0.68341708499999998</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="17">
         <v>0.44560357699999997</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="17">
         <v>5.6362084E-2</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="17">
         <v>0.48333333299999998</v>
       </c>
-      <c r="F17" s="29">
-        <v>0</v>
-      </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="28">
+      <c r="A19" s="16">
         <v>154</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="17">
         <v>0.37185929600000001</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="17">
         <v>0.52608047700000005</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="17">
         <v>0.26771989800000001</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="17">
         <v>0.3</v>
       </c>
-      <c r="F19" s="29">
-        <v>0</v>
-      </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
     </row>
     <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="28">
+      <c r="A23" s="16">
         <v>1</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B23" s="17">
         <v>-1.1513979240000001</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="17">
         <v>-4.1352557790000004</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="17">
         <v>-0.49073478999999998</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="17">
         <v>-1.0359403789999999</v>
       </c>
-      <c r="F23" s="29">
-        <v>0</v>
-      </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="28">
+      <c r="A24" s="16">
         <v>2</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="17">
         <v>-0.27664282600000001</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="17">
         <v>-0.48916880600000001</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="17">
         <v>2.4150299099999999</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="17">
         <v>1.4871008459999999</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="17">
         <v>1</v>
       </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="28">
+      <c r="A25" s="16">
         <v>3</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="17">
         <v>0.56687101799999995</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="17">
         <v>-0.42452187400000002</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="17">
         <v>0.54916055200000002</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="17">
         <v>-0.94893895800000005</v>
       </c>
-      <c r="F25" s="29">
-        <v>0</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="28">
+      <c r="A26" s="16">
         <v>4</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="17">
         <v>1.254178595</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="17">
         <v>-1.303720151</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="17">
         <v>-0.63929126700000005</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="17">
         <v>2.7921221690000002</v>
       </c>
-      <c r="F26" s="29">
-        <v>0</v>
-      </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="28">
+      <c r="A27" s="16">
         <v>5</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="17">
         <v>0.41066475099999999</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="17">
         <v>1.8381207509999999</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="17">
         <v>-0.68682933999999995</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="17">
         <v>1.139095159</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="17">
         <v>1</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="28">
+      <c r="A29" s="16">
         <v>614</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="17">
         <v>0.129493469</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="17">
         <v>-1.226143832</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="17">
         <v>-0.61552223100000003</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="17">
         <v>-1.0359403789999999</v>
       </c>
-      <c r="F29" s="29">
-        <v>0</v>
-      </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="F29" s="17">
+        <v>0</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="28">
+      <c r="A33" s="16">
         <v>1</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B33" s="17">
         <v>-0.71402037500000004</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="17">
         <v>0.26073560699999998</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="17">
         <v>-0.11637246699999999</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="17">
         <v>0.87809089500000004</v>
       </c>
-      <c r="F33" s="29">
-        <v>0</v>
-      </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="F33" s="17">
+        <v>0</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="28">
+      <c r="A34" s="16">
         <v>2</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="17">
         <v>-0.27664282600000001</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="17">
         <v>0.48053517600000001</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="17">
         <v>-0.95423100000000005</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="17">
         <v>-1.0359403789999999</v>
       </c>
-      <c r="F34" s="29">
-        <v>0</v>
-      </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="F34" s="17">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="28">
+      <c r="A35" s="16">
         <v>3</v>
       </c>
-      <c r="B35" s="29">
+      <c r="B35" s="17">
         <v>-0.40160783999999999</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="17">
         <v>-0.15300475899999999</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="17">
         <v>-0.92451970400000005</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="17">
         <v>-1.0359403789999999</v>
       </c>
-      <c r="F35" s="29">
-        <v>0</v>
-      </c>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
+      <c r="F35" s="17">
+        <v>0</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="28">
+      <c r="A36" s="16">
         <v>4</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="17">
         <v>-0.43284909399999999</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="17">
         <v>-0.95462671700000001</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="17">
         <v>1.1493287210000001</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="17">
         <v>9.5078100999999998E-2</v>
       </c>
-      <c r="F36" s="29">
-        <v>0</v>
-      </c>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
+      <c r="F36" s="17">
+        <v>0</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="28">
+      <c r="A37" s="16">
         <v>5</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B37" s="17">
         <v>0.47314725800000001</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="17">
         <v>-0.26936923600000001</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="17">
         <v>-0.77002096799999997</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="17">
         <v>1.4871008459999999</v>
       </c>
-      <c r="F37" s="29">
-        <v>0</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="F37" s="17">
+        <v>0</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="F38" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="28">
+      <c r="A39" s="16">
         <v>154</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="17">
         <v>-1.4638104590000001</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="17">
         <v>0.42881763099999998</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="17">
         <v>0.70068815900000003</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="17">
         <v>0.53008520800000003</v>
       </c>
-      <c r="F39" s="29">
-        <v>0</v>
-      </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
+      <c r="F39" s="17">
+        <v>0</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
     </row>
     <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="28">
+      <c r="A43" s="16">
         <v>1</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B43" s="17">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="C43" s="29">
-        <v>0</v>
-      </c>
-      <c r="D43" s="29">
+      <c r="C43" s="17">
+        <v>0</v>
+      </c>
+      <c r="D43" s="17">
         <v>3.04E-2</v>
       </c>
-      <c r="E43" s="29">
+      <c r="E43" s="17">
         <v>0.21</v>
       </c>
-      <c r="F43" s="29">
-        <v>0</v>
-      </c>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
+      <c r="F43" s="17">
+        <v>0</v>
+      </c>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="28">
+      <c r="A44" s="16">
         <v>2</v>
       </c>
-      <c r="B44" s="29">
+      <c r="B44" s="17">
         <v>0.112</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="17">
         <v>0.28199999999999997</v>
       </c>
-      <c r="D44" s="29">
+      <c r="D44" s="17">
         <v>0.12820000000000001</v>
       </c>
-      <c r="E44" s="29">
+      <c r="E44" s="17">
         <v>0.5</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="17">
         <v>1</v>
       </c>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="28">
+      <c r="A45" s="16">
         <v>3</v>
       </c>
-      <c r="B45" s="29">
+      <c r="B45" s="17">
         <v>0.13900000000000001</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="17">
         <v>0.28699999999999998</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="17">
         <v>6.54E-2</v>
       </c>
-      <c r="E45" s="29">
+      <c r="E45" s="17">
         <v>0.22</v>
       </c>
-      <c r="F45" s="29">
-        <v>0</v>
-      </c>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
+      <c r="F45" s="17">
+        <v>0</v>
+      </c>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="28">
+      <c r="A46" s="16">
         <v>4</v>
       </c>
-      <c r="B46" s="29">
+      <c r="B46" s="17">
         <v>0.161</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="17">
         <v>0.219</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="17">
         <v>2.5399999999999999E-2</v>
       </c>
-      <c r="E46" s="29">
+      <c r="E46" s="17">
         <v>0.65</v>
       </c>
-      <c r="F46" s="29">
-        <v>0</v>
-      </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
+      <c r="F46" s="17">
+        <v>0</v>
+      </c>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="28">
+      <c r="A47" s="16">
         <v>5</v>
       </c>
-      <c r="B47" s="29">
+      <c r="B47" s="17">
         <v>0.13400000000000001</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="17">
         <v>0.46200000000000002</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="17">
         <v>2.3800000000000002E-2</v>
       </c>
-      <c r="E47" s="29">
+      <c r="E47" s="17">
         <v>0.46</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F47" s="17">
         <v>1</v>
       </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="29" t="s">
+      <c r="F48" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="28">
+      <c r="A49" s="16">
         <v>614</v>
       </c>
-      <c r="B49" s="29">
+      <c r="B49" s="17">
         <v>0.125</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="17">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="17">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="17">
         <v>0.21</v>
       </c>
-      <c r="F49" s="29">
-        <v>0</v>
-      </c>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
+      <c r="F49" s="17">
+        <v>0</v>
+      </c>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F52" s="27" t="s">
+      <c r="F52" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="28">
+      <c r="A53" s="16">
         <v>1</v>
       </c>
-      <c r="B53" s="29">
+      <c r="B53" s="17">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="17">
         <v>0.34</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="17">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="17">
         <v>0.43</v>
       </c>
-      <c r="F53" s="29">
-        <v>0</v>
-      </c>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
+      <c r="F53" s="17">
+        <v>0</v>
+      </c>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="28">
+      <c r="A54" s="16">
         <v>2</v>
       </c>
-      <c r="B54" s="29">
+      <c r="B54" s="17">
         <v>0.112</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="17">
         <v>0.35699999999999998</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="17">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="17">
         <v>0.21</v>
       </c>
-      <c r="F54" s="29">
-        <v>0</v>
-      </c>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
+      <c r="F54" s="17">
+        <v>0</v>
+      </c>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="28">
+      <c r="A55" s="16">
         <v>3</v>
       </c>
-      <c r="B55" s="29">
+      <c r="B55" s="17">
         <v>0.108</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="17">
         <v>0.308</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D55" s="17">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="E55" s="29">
+      <c r="E55" s="17">
         <v>0.21</v>
       </c>
-      <c r="F55" s="29">
-        <v>0</v>
-      </c>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
+      <c r="F55" s="17">
+        <v>0</v>
+      </c>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="28">
+      <c r="A56" s="16">
         <v>4</v>
       </c>
-      <c r="B56" s="29">
+      <c r="B56" s="17">
         <v>0.107</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="17">
         <v>0.246</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="17">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="17">
         <v>0.34</v>
       </c>
-      <c r="F56" s="29">
-        <v>0</v>
-      </c>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
+      <c r="F56" s="17">
+        <v>0</v>
+      </c>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="28">
+      <c r="A57" s="16">
         <v>5</v>
       </c>
-      <c r="B57" s="29">
+      <c r="B57" s="17">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C57" s="29">
+      <c r="C57" s="17">
         <v>0.29899999999999999</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="17">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="17">
         <v>0.5</v>
       </c>
-      <c r="F57" s="29">
-        <v>0</v>
-      </c>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
+      <c r="F57" s="17">
+        <v>0</v>
+      </c>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="E58" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="F58" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="28">
+      <c r="A59" s="16">
         <v>154</v>
       </c>
-      <c r="B59" s="29">
+      <c r="B59" s="17">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C59" s="17">
         <v>0.35299999999999998</v>
       </c>
-      <c r="D59" s="29">
+      <c r="D59" s="17">
         <v>7.0499999999999993E-2</v>
       </c>
-      <c r="E59" s="29">
+      <c r="E59" s="17">
         <v>0.39</v>
       </c>
-      <c r="F59" s="29">
-        <v>0</v>
-      </c>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
+      <c r="F59" s="17">
+        <v>0</v>
+      </c>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
     </row>
     <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E62" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F62" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="28">
+      <c r="A63" s="16">
         <v>1</v>
       </c>
-      <c r="B63" s="29">
+      <c r="B63" s="17">
         <v>84</v>
       </c>
-      <c r="C63" s="29">
-        <v>0</v>
-      </c>
-      <c r="D63" s="29">
+      <c r="C63" s="17">
+        <v>0</v>
+      </c>
+      <c r="D63" s="17">
         <v>0.30399999999999999</v>
       </c>
-      <c r="E63" s="29">
+      <c r="E63" s="17">
         <v>21</v>
       </c>
-      <c r="F63" s="29">
+      <c r="F63" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="28">
+      <c r="A64" s="16">
         <v>2</v>
       </c>
-      <c r="B64" s="29">
+      <c r="B64" s="17">
         <v>112</v>
       </c>
-      <c r="C64" s="29">
+      <c r="C64" s="17">
         <v>28.2</v>
       </c>
-      <c r="D64" s="29">
+      <c r="D64" s="17">
         <v>1.282</v>
       </c>
-      <c r="E64" s="29">
+      <c r="E64" s="17">
         <v>50</v>
       </c>
-      <c r="F64" s="29">
+      <c r="F64" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="28">
+      <c r="A65" s="16">
         <v>3</v>
       </c>
-      <c r="B65" s="29">
+      <c r="B65" s="17">
         <v>139</v>
       </c>
-      <c r="C65" s="29">
+      <c r="C65" s="17">
         <v>28.7</v>
       </c>
-      <c r="D65" s="29">
+      <c r="D65" s="17">
         <v>0.65400000000000003</v>
       </c>
-      <c r="E65" s="29">
+      <c r="E65" s="17">
         <v>22</v>
       </c>
-      <c r="F65" s="29">
+      <c r="F65" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="28">
+      <c r="A66" s="16">
         <v>4</v>
       </c>
-      <c r="B66" s="29">
+      <c r="B66" s="17">
         <v>161</v>
       </c>
-      <c r="C66" s="29">
+      <c r="C66" s="17">
         <v>21.9</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="17">
         <v>0.254</v>
       </c>
-      <c r="E66" s="29">
+      <c r="E66" s="17">
         <v>65</v>
       </c>
-      <c r="F66" s="29">
+      <c r="F66" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="28">
+      <c r="A67" s="16">
         <v>5</v>
       </c>
-      <c r="B67" s="29">
+      <c r="B67" s="17">
         <v>134</v>
       </c>
-      <c r="C67" s="29">
+      <c r="C67" s="17">
         <v>46.2</v>
       </c>
-      <c r="D67" s="29">
+      <c r="D67" s="17">
         <v>0.23799999999999999</v>
       </c>
-      <c r="E67" s="29">
+      <c r="E67" s="17">
         <v>46</v>
       </c>
-      <c r="F67" s="29">
+      <c r="F67" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="E68" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F68" s="29" t="s">
+      <c r="F68" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="28">
+      <c r="A69" s="16">
         <v>614</v>
       </c>
-      <c r="B69" s="29">
+      <c r="B69" s="17">
         <v>125</v>
       </c>
-      <c r="C69" s="29">
+      <c r="C69" s="17">
         <v>22.5</v>
       </c>
-      <c r="D69" s="29">
+      <c r="D69" s="17">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E69" s="29">
+      <c r="E69" s="17">
         <v>21</v>
       </c>
-      <c r="F69" s="29">
+      <c r="F69" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
     </row>
     <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="26" t="s">
+      <c r="A72" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="27" t="s">
+      <c r="B72" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D72" s="27" t="s">
+      <c r="D72" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E72" s="27" t="s">
+      <c r="E72" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="F72" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="28">
+      <c r="A73" s="16">
         <v>1</v>
       </c>
-      <c r="B73" s="29">
+      <c r="B73" s="17">
         <v>98</v>
       </c>
-      <c r="C73" s="29">
+      <c r="C73" s="17">
         <v>34</v>
       </c>
-      <c r="D73" s="29">
+      <c r="D73" s="17">
         <v>0.43</v>
       </c>
-      <c r="E73" s="29">
+      <c r="E73" s="17">
         <v>43</v>
       </c>
-      <c r="F73" s="29">
+      <c r="F73" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="28">
+      <c r="A74" s="16">
         <v>2</v>
       </c>
-      <c r="B74" s="29">
+      <c r="B74" s="17">
         <v>112</v>
       </c>
-      <c r="C74" s="29">
+      <c r="C74" s="17">
         <v>35.700000000000003</v>
       </c>
-      <c r="D74" s="29">
+      <c r="D74" s="17">
         <v>0.14799999999999999</v>
       </c>
-      <c r="E74" s="29">
+      <c r="E74" s="17">
         <v>21</v>
       </c>
-      <c r="F74" s="29">
+      <c r="F74" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="28">
+      <c r="A75" s="16">
         <v>3</v>
       </c>
-      <c r="B75" s="29">
+      <c r="B75" s="17">
         <v>108</v>
       </c>
-      <c r="C75" s="29">
+      <c r="C75" s="17">
         <v>30.8</v>
       </c>
-      <c r="D75" s="29">
+      <c r="D75" s="17">
         <v>0.158</v>
       </c>
-      <c r="E75" s="29">
+      <c r="E75" s="17">
         <v>21</v>
       </c>
-      <c r="F75" s="29">
+      <c r="F75" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="28">
+      <c r="A76" s="16">
         <v>4</v>
       </c>
-      <c r="B76" s="29">
+      <c r="B76" s="17">
         <v>107</v>
       </c>
-      <c r="C76" s="29">
+      <c r="C76" s="17">
         <v>24.6</v>
       </c>
-      <c r="D76" s="29">
+      <c r="D76" s="17">
         <v>0.85599999999999998</v>
       </c>
-      <c r="E76" s="29">
+      <c r="E76" s="17">
         <v>34</v>
       </c>
-      <c r="F76" s="29">
+      <c r="F76" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="28">
+      <c r="A77" s="16">
         <v>5</v>
       </c>
-      <c r="B77" s="29">
+      <c r="B77" s="17">
         <v>136</v>
       </c>
-      <c r="C77" s="29">
+      <c r="C77" s="17">
         <v>29.9</v>
       </c>
-      <c r="D77" s="29">
+      <c r="D77" s="17">
         <v>0.21</v>
       </c>
-      <c r="E77" s="29">
+      <c r="E77" s="17">
         <v>50</v>
       </c>
-      <c r="F77" s="29">
+      <c r="F77" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="29" t="s">
+      <c r="C78" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D78" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="29" t="s">
+      <c r="E78" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F78" s="29" t="s">
+      <c r="F78" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="28">
+      <c r="A79" s="16">
         <v>154</v>
       </c>
-      <c r="B79" s="29">
+      <c r="B79" s="17">
         <v>74</v>
       </c>
-      <c r="C79" s="29">
+      <c r="C79" s="17">
         <v>35.299999999999997</v>
       </c>
-      <c r="D79" s="29">
+      <c r="D79" s="17">
         <v>0.70499999999999996</v>
       </c>
-      <c r="E79" s="29">
+      <c r="E79" s="17">
         <v>39</v>
       </c>
-      <c r="F79" s="29">
+      <c r="F79" s="17">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A31:F31"/>
     <mergeCell ref="A51:F51"/>
     <mergeCell ref="A61:F61"/>
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6874,7 +7035,7 @@
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6915,7 +7076,7 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="32" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6932,7 +7093,7 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
@@ -6947,7 +7108,7 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
@@ -6962,7 +7123,7 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
@@ -6977,7 +7138,7 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
@@ -6992,7 +7153,7 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
@@ -7007,7 +7168,7 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="6" t="s">
@@ -7022,7 +7183,7 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="6" t="s">
@@ -7089,13 +7250,13 @@
       <c r="F2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="22">
         <v>0.25</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="22">
         <v>0.5</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="22">
         <v>0.75</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -7145,7 +7306,7 @@
       <c r="J3" s="1">
         <v>17</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="30" t="s">
         <v>51</v>
       </c>
       <c r="M3" s="1">
@@ -7189,7 +7350,7 @@
       <c r="J4" s="1">
         <v>199</v>
       </c>
-      <c r="L4" s="19"/>
+      <c r="L4" s="34"/>
       <c r="M4" s="1">
         <v>1</v>
       </c>
@@ -7390,8 +7551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D691547A-C8A4-4583-A541-225574C9A77A}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:H25"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7400,9 +7561,9 @@
     <col min="2" max="2" width="5.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7433,586 +7594,586 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="23">
         <v>0.72729999999999995</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="23">
         <v>0.70299999999999996</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="23">
         <v>0.70299999999999996</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="23">
         <v>0.70299999999999996</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="23">
         <v>0.78790000000000004</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="23">
         <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="17"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="23">
         <v>0.74029999999999996</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="23">
         <v>0.71789999999999998</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="23">
         <v>0.72119999999999995</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="23">
         <v>0.71940000000000004</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="23">
         <v>0.78790000000000004</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="23">
         <v>0.75870000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="23">
         <v>0.74029999999999996</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="23">
         <v>0.71879999999999999</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="23">
         <v>0.72529999999999994</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="23">
         <v>0.72150000000000003</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="23">
         <v>0.77780000000000005</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="23">
         <v>0.77190000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="1">
         <v>7</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="23">
         <v>0.72729999999999995</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="23">
         <v>0.70650000000000002</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="23">
         <v>0.71519999999999995</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="23">
         <v>0.70960000000000001</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="23">
         <v>0.75760000000000005</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="23">
         <v>0.77070000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="1">
         <v>9</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="23">
         <v>0.75319999999999998</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="23">
         <v>0.73180000000000001</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="23">
         <v>0.73540000000000005</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="23">
         <v>0.73340000000000005</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="23">
         <v>0.79800000000000004</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="45">
         <v>0.77510000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="1">
         <v>11</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="43">
         <v>0.75970000000000004</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="23">
         <v>0.73899999999999999</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="23">
         <v>0.74439999999999995</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="23">
         <v>0.74139999999999995</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="23">
         <v>0.79800000000000004</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="45">
         <v>0.7802</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="32" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="23">
         <v>0.74029999999999996</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="23">
         <v>0.71789999999999998</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="23">
         <v>0.72119999999999995</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="23">
         <v>0.71940000000000004</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="23">
         <v>0.78790000000000004</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="45">
         <v>0.72119999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="23">
         <v>0.7792</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="23">
         <v>0.75960000000000005</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="23">
         <v>0.76359999999999995</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="23">
         <v>0.76149999999999995</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="23">
         <v>0.81820000000000004</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="45">
         <v>0.78439999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="1">
         <v>5</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="23">
         <v>0.78569999999999995</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="23">
         <v>0.76659999999999995</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="23">
         <v>0.76870000000000005</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="23">
         <v>0.76759999999999995</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="23">
         <v>0.82830000000000004</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="45">
         <v>0.79100000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="25">
         <v>0.81169999999999998</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="23">
         <v>0.79459999999999997</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="23">
         <v>0.79700000000000004</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="23">
         <v>0.79579999999999995</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="23">
         <v>0.84850000000000003</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="45">
         <v>0.79500000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="23">
         <v>0.79869999999999997</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="23">
         <v>0.78110000000000002</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="23">
         <v>0.77880000000000005</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="23">
         <v>0.77990000000000004</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="23">
         <v>0.84850000000000003</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="45">
         <v>0.80369999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="23">
         <v>0.7792</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="23">
         <v>0.75990000000000002</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="23">
         <v>0.75560000000000005</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="23">
         <v>0.75760000000000005</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="23">
         <v>0.83840000000000003</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="45">
         <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="32" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="23">
         <v>0.74029999999999996</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="23">
         <v>0.71719999999999995</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="23">
         <v>0.71719999999999995</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="23">
         <v>0.71719999999999995</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="23">
         <v>0.79800000000000004</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="45">
         <v>0.71719999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="17"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="23">
         <v>0.74029999999999996</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="23">
         <v>0.71879999999999999</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="23">
         <v>0.72529999999999994</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="23">
         <v>0.72150000000000003</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="23">
         <v>0.77780000000000005</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="45">
         <v>0.75529999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="23">
         <v>0.74680000000000002</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="23">
         <v>0.72519999999999996</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="23">
         <v>0.73029999999999995</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="23">
         <v>0.72740000000000005</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="23">
         <v>0.78790000000000004</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="45">
         <v>0.76970000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="1">
         <v>7</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="23">
         <v>0.79220000000000002</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="23">
         <v>0.77370000000000005</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="23">
         <v>0.77370000000000005</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="23">
         <v>0.77370000000000005</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="23">
         <v>0.83840000000000003</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="45">
         <v>0.79690000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="1">
         <v>9</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="42">
         <v>0.7792</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="23">
         <v>0.75990000000000002</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="23">
         <v>0.75560000000000005</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="23">
         <v>0.75760000000000005</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="23">
         <v>0.83840000000000003</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="45">
         <v>0.80600000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="1">
         <v>11</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="23">
         <v>0.77270000000000005</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="23">
         <v>0.75290000000000001</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="23">
         <v>0.75860000000000005</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="23">
         <v>0.75539999999999996</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="23">
         <v>0.80810000000000004</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="45">
         <v>0.81289999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="23">
         <v>0.7208</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="23">
         <v>0.69640000000000002</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="23">
         <v>0.69799999999999995</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="23">
         <v>0.69720000000000004</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="23">
         <v>0.77780000000000005</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="45">
         <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="1">
         <v>3</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="23">
         <v>0.70130000000000003</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="23">
         <v>0.68130000000000002</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="23">
         <v>0.69089999999999996</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="23">
         <v>0.68400000000000005</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="23">
         <v>0.72729999999999995</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="45">
         <v>0.73909999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="1">
         <v>5</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="23">
         <v>0.7208</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="23">
         <v>0.6976</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="23">
         <v>0.70199999999999996</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="23">
         <v>0.69950000000000001</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="23">
         <v>0.76770000000000005</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="45">
         <v>0.75329999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="1">
         <v>7</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="23">
         <v>0.73380000000000001</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="23">
         <v>0.71140000000000003</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="23">
         <v>0.71619999999999995</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="23">
         <v>0.71350000000000002</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="23">
         <v>0.77780000000000005</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="45">
         <v>0.77280000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="17"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="1">
         <v>9</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="44">
         <v>0.74029999999999996</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="23">
         <v>0.71719999999999995</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="23">
         <v>0.71719999999999995</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="23">
         <v>0.71719999999999995</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="23">
         <v>0.79800000000000004</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="45">
         <v>0.78339999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="17"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="1">
         <v>11</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="23">
         <v>0.72729999999999995</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="23">
         <v>0.70240000000000002</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="23">
         <v>0.69899999999999995</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="23">
         <v>0.7006</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="23">
         <v>0.79800000000000004</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="45">
         <v>0.78739999999999999</v>
       </c>
     </row>
